--- a/output/file name descriptor 32data_descripter.xlsx
+++ b/output/file name descriptor 32data_descripter.xlsx
@@ -1403,28 +1403,28 @@
         <v>-104</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.615384615384619</v>
+        <v>8.615384615384617</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8639053254437833</v>
+        <v>-0.8639053254437822</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.810650887573966</v>
+        <v>5.810650887573968</v>
       </c>
       <c r="AE2" t="n">
         <v>-1.260355029585798</v>
       </c>
       <c r="AF2" t="n">
-        <v>-5.887573964497039</v>
+        <v>-5.887573964497038</v>
       </c>
       <c r="AG2" t="n">
-        <v>-3.402366863905326</v>
+        <v>-3.402366863905325</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.171597633136096</v>
+        <v>-4.171597633136095</v>
       </c>
       <c r="AI2" t="n">
-        <v>-8.704142011834321</v>
+        <v>-8.704142011834323</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -1451,22 +1451,22 @@
         <v>-131</v>
       </c>
       <c r="AR2" t="n">
-        <v>-38.63302339822485</v>
+        <v>-38.63302339822493</v>
       </c>
       <c r="AS2" t="n">
-        <v>-7.002272257029745</v>
+        <v>-7.002272257029731</v>
       </c>
       <c r="AT2" t="n">
         <v>-36.99530642891051</v>
       </c>
       <c r="AU2" t="n">
-        <v>600.0951760161745</v>
+        <v>600.0951760161744</v>
       </c>
       <c r="AV2" t="n">
         <v>-197.6568850861783</v>
       </c>
       <c r="AW2" t="n">
-        <v>-832.9951982521902</v>
+        <v>-832.9951982521903</v>
       </c>
       <c r="AX2" t="n">
         <v>411.6501861937909</v>
@@ -1481,28 +1481,28 @@
         <v>0.1467421775147903</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.6549331834319608</v>
+        <v>-0.6549331834319609</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.4231278343195239</v>
+        <v>0.4231278343195241</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.3623132781065135</v>
+        <v>-0.3623132781065134</v>
       </c>
       <c r="BE2" t="n">
         <v>-1.620885822485211</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.5111452043076949</v>
+        <v>-0.5111452043076948</v>
       </c>
       <c r="BG2" t="n">
         <v>0.62993822814365</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.965651015492953</v>
+        <v>1.965651015492952</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.9913781379606517</v>
+        <v>-0.9913781379606519</v>
       </c>
       <c r="BJ2" t="n">
         <v>1.23139597950848</v>
@@ -1523,13 +1523,13 @@
         <v>11.59392822900744</v>
       </c>
       <c r="BP2" t="n">
-        <v>-2.141661630506473</v>
+        <v>-2.141661630506474</v>
       </c>
       <c r="BQ2" t="n">
         <v>-23.37943985183239</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.297141227466689</v>
+        <v>-1.29714122746669</v>
       </c>
       <c r="BS2" t="n">
         <v>-4.147645071291095</v>
@@ -1912,22 +1912,22 @@
         <v>163.8738979668939</v>
       </c>
       <c r="T3" t="n">
-        <v>40.57300275482094</v>
+        <v>40.57300275482093</v>
       </c>
       <c r="U3" t="n">
-        <v>22.47199265381084</v>
+        <v>22.47199265381083</v>
       </c>
       <c r="V3" t="n">
-        <v>-8.259871441689619</v>
+        <v>-8.259871441689624</v>
       </c>
       <c r="W3" t="n">
-        <v>-50.01561065197428</v>
+        <v>-50.01561065197431</v>
       </c>
       <c r="X3" t="n">
-        <v>-52.98622589531681</v>
+        <v>-52.98622589531677</v>
       </c>
       <c r="Y3" t="n">
-        <v>-13.93847566574839</v>
+        <v>-13.9384756657484</v>
       </c>
       <c r="Z3" t="n">
         <v>-11.25711662075298</v>
@@ -1939,55 +1939,55 @@
         <v>13.05061983471074</v>
       </c>
       <c r="AC3" t="n">
-        <v>-5.068698347107444</v>
+        <v>-5.068698347107443</v>
       </c>
       <c r="AD3" t="n">
         <v>-10.74380165289256</v>
       </c>
       <c r="AE3" t="n">
-        <v>-17.44989669421488</v>
+        <v>-17.44989669421487</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5139462809917372</v>
+        <v>0.5139462809917369</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.303202479338843</v>
+        <v>6.303202479338844</v>
       </c>
       <c r="AH3" t="n">
-        <v>-4.175103305785123</v>
+        <v>-4.175103305785125</v>
       </c>
       <c r="AI3" t="n">
         <v>-5.958161157024794</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.082644628099196</v>
+        <v>3.082644628099207</v>
       </c>
       <c r="AK3" t="n">
-        <v>113.6280991735537</v>
+        <v>113.6280991735538</v>
       </c>
       <c r="AL3" t="n">
-        <v>-359.8099173553719</v>
+        <v>-359.809917355372</v>
       </c>
       <c r="AM3" t="n">
-        <v>121.0743801652893</v>
+        <v>121.0743801652892</v>
       </c>
       <c r="AN3" t="n">
-        <v>-61.86776859504134</v>
+        <v>-61.86776859504133</v>
       </c>
       <c r="AO3" t="n">
-        <v>31.66942148760329</v>
+        <v>31.66942148760328</v>
       </c>
       <c r="AP3" t="n">
-        <v>-9.983471074380173</v>
+        <v>-9.983471074380162</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-126.694214876033</v>
+        <v>-126.6942148760331</v>
       </c>
       <c r="AR3" t="n">
         <v>230.3362834230392</v>
       </c>
       <c r="AS3" t="n">
-        <v>292.4507302733304</v>
+        <v>292.4507302733302</v>
       </c>
       <c r="AT3" t="n">
         <v>-1408.945484535145</v>
@@ -1996,37 +1996,37 @@
         <v>-104.9527024719365</v>
       </c>
       <c r="AV3" t="n">
-        <v>-572.8568276956545</v>
+        <v>-572.8568276956548</v>
       </c>
       <c r="AW3" t="n">
-        <v>666.2802333648672</v>
+        <v>666.2802333648669</v>
       </c>
       <c r="AX3" t="n">
-        <v>172.6922070793592</v>
+        <v>172.6922070793591</v>
       </c>
       <c r="AY3" t="n">
-        <v>-326.4080774587372</v>
+        <v>-326.4080774587373</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.8158526126033051</v>
+        <v>-0.8158526126033054</v>
       </c>
       <c r="BA3" t="n">
         <v>1.280973722623966</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.02606644214876086</v>
+        <v>0.0260664421487611</v>
       </c>
       <c r="BC3" t="n">
         <v>-1.520099321797521</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.3014154653925598</v>
+        <v>-0.3014154653925596</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.7105824757231392</v>
+        <v>-0.7105824757231395</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.915372619391003</v>
+        <v>1.915372619391002</v>
       </c>
       <c r="BG3" t="n">
         <v>-8.494981200463826</v>
@@ -2035,10 +2035,10 @@
         <v>-4.37117191609973</v>
       </c>
       <c r="BI3" t="n">
-        <v>-1.972858367597421</v>
+        <v>-1.972858367597422</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.8759777068593105</v>
+        <v>0.8759777068593104</v>
       </c>
       <c r="BK3" t="n">
         <v>68.2093350478371</v>
@@ -2047,7 +2047,7 @@
         <v>3.646486133218537</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.8670524237227919</v>
+        <v>-0.8670524237227923</v>
       </c>
       <c r="BN3" t="n">
         <v>-21.14197834236915</v>
@@ -2056,13 +2056,13 @@
         <v>-27.80729393368568</v>
       </c>
       <c r="BP3" t="n">
-        <v>-25.91074717155256</v>
+        <v>-25.91074717155257</v>
       </c>
       <c r="BQ3" t="n">
         <v>36.99085755538771</v>
       </c>
       <c r="BR3" t="n">
-        <v>2.566927992899135</v>
+        <v>2.566927992899137</v>
       </c>
       <c r="BS3" t="n">
         <v>-3.91231020228548</v>
@@ -2071,7 +2071,7 @@
         <v>4.354912764003673</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.06701401365433035</v>
+        <v>0.06701401365433057</v>
       </c>
       <c r="BV3" t="n">
         <v>48.42381314906449</v>
@@ -2445,34 +2445,34 @@
         <v>170.5270559816997</v>
       </c>
       <c r="T4" t="n">
-        <v>-19.70797805539032</v>
+        <v>-19.70797805539031</v>
       </c>
       <c r="U4" t="n">
-        <v>116.1757551721859</v>
+        <v>116.1757551721858</v>
       </c>
       <c r="V4" t="n">
-        <v>-7.062859409081891</v>
+        <v>-7.062859409081893</v>
       </c>
       <c r="W4" t="n">
-        <v>13.81697402339877</v>
+        <v>13.81697402339878</v>
       </c>
       <c r="X4" t="n">
-        <v>33.71498446691784</v>
+        <v>33.71498446691783</v>
       </c>
       <c r="Y4" t="n">
-        <v>32.15658668781809</v>
+        <v>32.15658668781811</v>
       </c>
       <c r="Z4" t="n">
-        <v>-28.88313834357856</v>
+        <v>-28.88313834357857</v>
       </c>
       <c r="AA4" t="n">
-        <v>-97.5377751338489</v>
+        <v>-97.53777513384888</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1921475312314107</v>
+        <v>0.1921475312314108</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.07495538370017596</v>
+        <v>-0.07495538370017707</v>
       </c>
       <c r="AD4" t="n">
         <v>-1.441403926234381</v>
@@ -2481,13 +2481,13 @@
         <v>-10.39678762641285</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.4289113622843554</v>
+        <v>-0.4289113622843548</v>
       </c>
       <c r="AG4" t="n">
-        <v>-11.47828673408686</v>
+        <v>-11.47828673408685</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6966091612135614</v>
+        <v>0.6966091612135615</v>
       </c>
       <c r="AI4" t="n">
         <v>2.409280190362879</v>
@@ -2499,7 +2499,7 @@
         <v>-33.1624033313504</v>
       </c>
       <c r="AL4" t="n">
-        <v>-86.82629387269483</v>
+        <v>-86.82629387269481</v>
       </c>
       <c r="AM4" t="n">
         <v>110.5020820939916</v>
@@ -2508,7 +2508,7 @@
         <v>284.8715050565139</v>
       </c>
       <c r="AO4" t="n">
-        <v>-14.767995240928</v>
+        <v>-14.76799524092801</v>
       </c>
       <c r="AP4" t="n">
         <v>-183.0963712076145</v>
@@ -2526,10 +2526,10 @@
         <v>-340.7470516814283</v>
       </c>
       <c r="AU4" t="n">
-        <v>-510.8636216161606</v>
+        <v>-510.8636216161609</v>
       </c>
       <c r="AV4" t="n">
-        <v>21.31374500583763</v>
+        <v>21.31374500583764</v>
       </c>
       <c r="AW4" t="n">
         <v>99.53832975943789</v>
@@ -2538,16 +2538,16 @@
         <v>-169.8523969737389</v>
       </c>
       <c r="AY4" t="n">
-        <v>10.29147272659755</v>
+        <v>10.2914727265976</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.06234635098156033</v>
+        <v>0.06234635098156035</v>
       </c>
       <c r="BA4" t="n">
         <v>5.861383039857227</v>
       </c>
       <c r="BB4" t="n">
-        <v>-1.937901231409867</v>
+        <v>-1.937901231409868</v>
       </c>
       <c r="BC4" t="n">
         <v>-1.878604130279592</v>
@@ -2562,13 +2562,13 @@
         <v>-0.9625522231928566</v>
       </c>
       <c r="BG4" t="n">
-        <v>-2.103454596824783</v>
+        <v>-2.103454596824782</v>
       </c>
       <c r="BH4" t="n">
-        <v>-6.767842008588468</v>
+        <v>-6.767842008588471</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.6607493268294008</v>
+        <v>0.6607493268294011</v>
       </c>
       <c r="BJ4" t="n">
         <v>2.6045656925685</v>
@@ -2577,13 +2577,13 @@
         <v>131.4512763578107</v>
       </c>
       <c r="BL4" t="n">
-        <v>-2.009140445374761</v>
+        <v>-2.009140445374762</v>
       </c>
       <c r="BM4" t="n">
-        <v>70.58249916169918</v>
+        <v>70.5824991616992</v>
       </c>
       <c r="BN4" t="n">
-        <v>-38.90366326037467</v>
+        <v>-38.90366326037466</v>
       </c>
       <c r="BO4" t="n">
         <v>-100.1574866309907</v>
@@ -2595,7 +2595,7 @@
         <v>-11.76140435313054</v>
       </c>
       <c r="BR4" t="n">
-        <v>50.33372527394063</v>
+        <v>50.33372527394062</v>
       </c>
       <c r="BS4" t="n">
         <v>14.86102253695289</v>
@@ -2978,64 +2978,64 @@
         <v>163.364609195293</v>
       </c>
       <c r="T5" t="n">
-        <v>30</v>
+        <v>29.99999999999999</v>
       </c>
       <c r="U5" t="n">
         <v>24.4234404536862</v>
       </c>
       <c r="V5" t="n">
-        <v>-15.13421550094518</v>
+        <v>-15.13421550094517</v>
       </c>
       <c r="W5" t="n">
-        <v>-52.90737240075614</v>
+        <v>-52.90737240075613</v>
       </c>
       <c r="X5" t="n">
-        <v>-43.23629489603024</v>
+        <v>-43.23629489603025</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.417769376181475</v>
+        <v>-5.417769376181477</v>
       </c>
       <c r="Z5" t="n">
         <v>-16.5179584120983</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.206049149338373</v>
+        <v>2.206049149338374</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.478260869565215</v>
+        <v>4.478260869565217</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6238185255198507</v>
+        <v>-0.6238185255198506</v>
       </c>
       <c r="AD5" t="n">
         <v>-2.990548204158791</v>
       </c>
       <c r="AE5" t="n">
-        <v>-3.29678638941399</v>
+        <v>-3.296786389413989</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.735349716446124</v>
+        <v>-3.735349716446125</v>
       </c>
       <c r="AG5" t="n">
         <v>-2.67296786389414</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.7485822306238175</v>
+        <v>-0.7485822306238177</v>
       </c>
       <c r="AI5" t="n">
         <v>-0.3629489603024569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-1.304347826086962</v>
+        <v>-1.30434782608696</v>
       </c>
       <c r="AK5" t="n">
         <v>25.1625708884688</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.517958412098299</v>
+        <v>4.5179584120983</v>
       </c>
       <c r="AM5" t="n">
-        <v>-61.77693761814746</v>
+        <v>-61.77693761814744</v>
       </c>
       <c r="AN5" t="n">
         <v>-58.27977315689981</v>
@@ -3044,22 +3044,22 @@
         <v>-25.67863894139887</v>
       </c>
       <c r="AP5" t="n">
-        <v>-17.12665406427221</v>
+        <v>-17.12665406427222</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6.162570888468817</v>
+        <v>6.162570888468812</v>
       </c>
       <c r="AR5" t="n">
-        <v>24.35933105958304</v>
+        <v>24.35933105958303</v>
       </c>
       <c r="AS5" t="n">
         <v>42.07738739604981</v>
       </c>
       <c r="AT5" t="n">
-        <v>-15.59998206719047</v>
+        <v>-15.59998206719048</v>
       </c>
       <c r="AU5" t="n">
-        <v>-314.1191251846435</v>
+        <v>-314.1191251846436</v>
       </c>
       <c r="AV5" t="n">
         <v>-110.7901036258803</v>
@@ -3068,13 +3068,13 @@
         <v>-496.9719808692336</v>
       </c>
       <c r="AX5" t="n">
-        <v>-29.13676280974275</v>
+        <v>-29.13676280974273</v>
       </c>
       <c r="AY5" t="n">
-        <v>3.562532015654369</v>
+        <v>3.562532015654388</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.1826918260869559</v>
+        <v>-0.182691826086956</v>
       </c>
       <c r="BA5" t="n">
         <v>0.6094271833648397</v>
@@ -3083,25 +3083,25 @@
         <v>-0.4245623591682414</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0.9579853308128522</v>
+        <v>-0.9579853308128524</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0.916618926275991</v>
+        <v>-0.9166189262759908</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.9481725293005658</v>
+        <v>0.9481725293005659</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.02109550765216965</v>
+        <v>-0.02109550765216963</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.6059444013292501</v>
+        <v>-0.6059444013292499</v>
       </c>
       <c r="BH5" t="n">
-        <v>-1.368300987850166</v>
+        <v>-1.368300987850167</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.2449299212578723</v>
+        <v>0.2449299212578724</v>
       </c>
       <c r="BJ5" t="n">
         <v>0.1657319163120311</v>
@@ -3110,34 +3110,34 @@
         <v>32.56794488010728</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.257515881993454</v>
+        <v>2.257515881993456</v>
       </c>
       <c r="BM5" t="n">
         <v>-2.913398808404159</v>
       </c>
       <c r="BN5" t="n">
-        <v>-5.681315303635398</v>
+        <v>-5.6813153036354</v>
       </c>
       <c r="BO5" t="n">
-        <v>-7.383747734718115</v>
+        <v>-7.383747734718114</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.7229733729271892</v>
+        <v>-0.722973372927189</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-7.745119114405887</v>
+        <v>-7.745119114405888</v>
       </c>
       <c r="BR5" t="n">
-        <v>-2.563085701783981</v>
+        <v>-2.563085701783982</v>
       </c>
       <c r="BS5" t="n">
-        <v>-1.320682722788478</v>
+        <v>-1.320682722788479</v>
       </c>
       <c r="BT5" t="n">
         <v>4.056710775047259</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0.05671077504725923</v>
+        <v>-0.05671077504725913</v>
       </c>
       <c r="BV5" t="n">
         <v>49.2883214085218</v>
@@ -3514,16 +3514,16 @@
         <v>-22.35956790123458</v>
       </c>
       <c r="U6" t="n">
-        <v>73.59490740740739</v>
+        <v>73.59490740740743</v>
       </c>
       <c r="V6" t="n">
-        <v>-49.57330246913581</v>
+        <v>-49.57330246913579</v>
       </c>
       <c r="W6" t="n">
         <v>36.07253086419754</v>
       </c>
       <c r="X6" t="n">
-        <v>-75.73688271604938</v>
+        <v>-75.73688271604937</v>
       </c>
       <c r="Y6" t="n">
         <v>128.5246913580247</v>
@@ -3565,7 +3565,7 @@
         <v>-226.5225</v>
       </c>
       <c r="AL6" t="n">
-        <v>-2.27750000000003</v>
+        <v>-2.277500000000013</v>
       </c>
       <c r="AM6" t="n">
         <v>147.985</v>
@@ -3574,46 +3574,46 @@
         <v>185.2525</v>
       </c>
       <c r="AO6" t="n">
-        <v>49.83000000000004</v>
+        <v>49.83</v>
       </c>
       <c r="AP6" t="n">
         <v>-131.59</v>
       </c>
       <c r="AQ6" t="n">
-        <v>56.57750000000001</v>
+        <v>56.5775</v>
       </c>
       <c r="AR6" t="n">
-        <v>176.5484663911484</v>
+        <v>176.5484663911485</v>
       </c>
       <c r="AS6" t="n">
         <v>-314.3936113954728</v>
       </c>
       <c r="AT6" t="n">
-        <v>-392.8007198627823</v>
+        <v>-392.8007198627824</v>
       </c>
       <c r="AU6" t="n">
-        <v>-97.11616203864395</v>
+        <v>-97.11616203864399</v>
       </c>
       <c r="AV6" t="n">
-        <v>-41.9261834387348</v>
+        <v>-41.92618343873481</v>
       </c>
       <c r="AW6" t="n">
-        <v>-11.77879880075152</v>
+        <v>-11.77879880075151</v>
       </c>
       <c r="AX6" t="n">
-        <v>-54.00131145269033</v>
+        <v>-54.00131145269038</v>
       </c>
       <c r="AY6" t="n">
         <v>162.6812265591852</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.3816810549999997</v>
+        <v>0.3816810549999995</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.4492480775</v>
+        <v>2.449248077499999</v>
       </c>
       <c r="BB6" t="n">
-        <v>-1.9170896275</v>
+        <v>-1.917089627499999</v>
       </c>
       <c r="BC6" t="n">
         <v>1.069323035</v>
@@ -3622,55 +3622,55 @@
         <v>-1.122101097500001</v>
       </c>
       <c r="BE6" t="n">
-        <v>6.536651429999997</v>
+        <v>6.536651429999999</v>
       </c>
       <c r="BF6" t="n">
         <v>-1.511143138621995</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.09030934078742758</v>
+        <v>-0.09030934078742732</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.3750389209011151</v>
+        <v>-0.3750389209011152</v>
       </c>
       <c r="BI6" t="n">
         <v>-2.586274690829796</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4.29240196897981</v>
+        <v>4.292401968979809</v>
       </c>
       <c r="BK6" t="n">
         <v>71.26575981570986</v>
       </c>
       <c r="BL6" t="n">
-        <v>-1.004786464314576</v>
+        <v>-1.004786464314574</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0.05498912696307823</v>
+        <v>-0.0549891269630789</v>
       </c>
       <c r="BN6" t="n">
-        <v>-21.58168289221874</v>
+        <v>-21.58168289221875</v>
       </c>
       <c r="BO6" t="n">
         <v>-13.03415055083602</v>
       </c>
       <c r="BP6" t="n">
-        <v>-20.54773202552143</v>
+        <v>-20.54773202552142</v>
       </c>
       <c r="BQ6" t="n">
-        <v>9.187713246321616</v>
+        <v>9.187713246321612</v>
       </c>
       <c r="BR6" t="n">
         <v>20.78123383655081</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0.9022490449149898</v>
+        <v>-0.9022490449149897</v>
       </c>
       <c r="BT6" t="n">
         <v>4.25787037037037</v>
       </c>
       <c r="BU6" t="n">
-        <v>2.83702380952381</v>
+        <v>2.837023809523809</v>
       </c>
       <c r="BV6" t="n">
         <v>50.76538021257656</v>
@@ -4062,25 +4062,25 @@
         <v>-15.18385144146917</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.4042269416230617</v>
+        <v>-0.4042269416230607</v>
       </c>
       <c r="AA7" t="n">
         <v>5.308847166649568</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.578947368421054</v>
+        <v>2.578947368421053</v>
       </c>
       <c r="AC7" t="n">
         <v>-3.800554016620498</v>
       </c>
       <c r="AD7" t="n">
-        <v>-4.578947368421053</v>
+        <v>-4.578947368421052</v>
       </c>
       <c r="AE7" t="n">
-        <v>-4.670360110803324</v>
+        <v>-4.670360110803323</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1385041551246535</v>
+        <v>0.1385041551246536</v>
       </c>
       <c r="AG7" t="n">
         <v>1.961218836565096</v>
@@ -4095,19 +4095,19 @@
         <v>-16.21052631578947</v>
       </c>
       <c r="AK7" t="n">
-        <v>-7.445983379501374</v>
+        <v>-7.445983379501381</v>
       </c>
       <c r="AL7" t="n">
-        <v>-3.526315789473689</v>
+        <v>-3.526315789473685</v>
       </c>
       <c r="AM7" t="n">
         <v>-96.11357340720221</v>
       </c>
       <c r="AN7" t="n">
-        <v>-7.925207756232691</v>
+        <v>-7.925207756232689</v>
       </c>
       <c r="AO7" t="n">
-        <v>-52.21883656509696</v>
+        <v>-52.21883656509698</v>
       </c>
       <c r="AP7" t="n">
         <v>21.54293628808864</v>
@@ -4125,13 +4125,13 @@
         <v>-101.6576526560781</v>
       </c>
       <c r="AU7" t="n">
-        <v>-342.3785350497697</v>
+        <v>-342.3785350497698</v>
       </c>
       <c r="AV7" t="n">
         <v>-161.0405588579056</v>
       </c>
       <c r="AW7" t="n">
-        <v>-6.722914800640421</v>
+        <v>-6.722914800640416</v>
       </c>
       <c r="AX7" t="n">
         <v>160.9757386563001</v>
@@ -4143,16 +4143,16 @@
         <v>-0.5066640000000001</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.4112569999999991</v>
+        <v>0.4112569999999993</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.6932799999999995</v>
+        <v>0.6932799999999993</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.8679549999999991</v>
+        <v>-0.8679549999999993</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.07054099999999874</v>
+        <v>-0.07054099999999873</v>
       </c>
       <c r="BE7" t="n">
         <v>-1.005687</v>
@@ -4167,10 +4167,10 @@
         <v>-2.520561113248665</v>
       </c>
       <c r="BI7" t="n">
-        <v>-2.332299955951072</v>
+        <v>-2.332299955951071</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.9770415586781698</v>
+        <v>0.9770415586781699</v>
       </c>
       <c r="BK7" t="n">
         <v>24.57606551703977</v>
@@ -4179,16 +4179,16 @@
         <v>4.784280779368443</v>
       </c>
       <c r="BM7" t="n">
-        <v>-4.720434941733954</v>
+        <v>-4.720434941733953</v>
       </c>
       <c r="BN7" t="n">
-        <v>-3.742689049643248</v>
+        <v>-3.742689049643247</v>
       </c>
       <c r="BO7" t="n">
         <v>-10.20805246804235</v>
       </c>
       <c r="BP7" t="n">
-        <v>-4.918594337352669</v>
+        <v>-4.91859433735267</v>
       </c>
       <c r="BQ7" t="n">
         <v>1.644223924318994</v>
@@ -4203,7 +4203,7 @@
         <v>4.14404432132964</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0.8531855955678666</v>
+        <v>-0.8531855955678668</v>
       </c>
       <c r="BV7" t="n">
         <v>48.16363191917153</v>
@@ -4577,10 +4577,10 @@
         <v>162.1155589794674</v>
       </c>
       <c r="T8" t="n">
-        <v>49.87612328882172</v>
+        <v>49.87612328882174</v>
       </c>
       <c r="U8" t="n">
-        <v>9.973656952492956</v>
+        <v>9.973656952492945</v>
       </c>
       <c r="V8" t="n">
         <v>29.91565185745082</v>
@@ -4592,16 +4592,16 @@
         <v>-40.64502673497383</v>
       </c>
       <c r="Y8" t="n">
-        <v>-121.9889980683631</v>
+        <v>-121.9889980683632</v>
       </c>
       <c r="Z8" t="n">
-        <v>-59.55535959239665</v>
+        <v>-59.55535959239663</v>
       </c>
       <c r="AA8" t="n">
-        <v>-1.824333025391248</v>
+        <v>-1.824333025391244</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.311224489795919</v>
+        <v>9.311224489795917</v>
       </c>
       <c r="AC8" t="n">
         <v>-0.6695011337868484</v>
@@ -4610,7 +4610,7 @@
         <v>2.346371882086166</v>
       </c>
       <c r="AE8" t="n">
-        <v>3.471088435374149</v>
+        <v>3.47108843537415</v>
       </c>
       <c r="AF8" t="n">
         <v>-6.31859410430839</v>
@@ -4619,19 +4619,19 @@
         <v>-20.8469387755102</v>
       </c>
       <c r="AH8" t="n">
-        <v>-9.365079365079366</v>
+        <v>-9.365079365079364</v>
       </c>
       <c r="AI8" t="n">
-        <v>-2.116213151927437</v>
+        <v>-2.116213151927439</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.21768707482997</v>
+        <v>19.21768707482996</v>
       </c>
       <c r="AK8" t="n">
-        <v>30.47845804988667</v>
+        <v>30.47845804988665</v>
       </c>
       <c r="AL8" t="n">
-        <v>-78.60090702947844</v>
+        <v>-78.60090702947841</v>
       </c>
       <c r="AM8" t="n">
         <v>53.156462585034</v>
@@ -4640,16 +4640,16 @@
         <v>132.7596371882086</v>
       </c>
       <c r="AO8" t="n">
-        <v>-170.360544217687</v>
+        <v>-170.3605442176871</v>
       </c>
       <c r="AP8" t="n">
-        <v>14.01587301587299</v>
+        <v>14.015873015873</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-67.81179138321995</v>
+        <v>-67.81179138321998</v>
       </c>
       <c r="AR8" t="n">
-        <v>-20.63935115200998</v>
+        <v>-20.63935115200997</v>
       </c>
       <c r="AS8" t="n">
         <v>359.9580711423789</v>
@@ -4658,10 +4658,10 @@
         <v>-344.4313804029462</v>
       </c>
       <c r="AU8" t="n">
-        <v>162.0627847310924</v>
+        <v>162.0627847310925</v>
       </c>
       <c r="AV8" t="n">
-        <v>1127.214725064774</v>
+        <v>1127.214725064775</v>
       </c>
       <c r="AW8" t="n">
         <v>-1565.590263845127</v>
@@ -4670,7 +4670,7 @@
         <v>-670.7346317925662</v>
       </c>
       <c r="AY8" t="n">
-        <v>-119.611172349076</v>
+        <v>-119.6111723490758</v>
       </c>
       <c r="AZ8" t="n">
         <v>-0.03847304591836598</v>
@@ -4679,25 +4679,25 @@
         <v>-0.335555923469385</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.2499260663265282</v>
+        <v>-0.2499260663265281</v>
       </c>
       <c r="BC8" t="n">
         <v>0.1755441377551022</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.09430460204081625</v>
+        <v>0.0943046020408162</v>
       </c>
       <c r="BE8" t="n">
         <v>-0.1367789897959181</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.669138247635223</v>
+        <v>-0.6691382476352232</v>
       </c>
       <c r="BG8" t="n">
-        <v>-1.682012700473471</v>
+        <v>-1.68201270047347</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.4272078280730733</v>
+        <v>0.4272078280730732</v>
       </c>
       <c r="BI8" t="n">
         <v>6.016941873711806</v>
@@ -4709,19 +4709,19 @@
         <v>66.13674477897837</v>
       </c>
       <c r="BL8" t="n">
-        <v>-18.6959878091915</v>
+        <v>-18.69598780919151</v>
       </c>
       <c r="BM8" t="n">
-        <v>8.49233542644788</v>
+        <v>8.492335426447882</v>
       </c>
       <c r="BN8" t="n">
         <v>-8.691064517547487</v>
       </c>
       <c r="BO8" t="n">
-        <v>-4.497941254008857</v>
+        <v>-4.497941254008856</v>
       </c>
       <c r="BP8" t="n">
-        <v>45.35851516000698</v>
+        <v>45.358515160007</v>
       </c>
       <c r="BQ8" t="n">
         <v>-30.66489099477484</v>
@@ -4736,7 +4736,7 @@
         <v>3.285854259399233</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.4270597127739993</v>
+        <v>0.4270597127739992</v>
       </c>
       <c r="BV8" t="n">
         <v>52.19721025377157</v>
@@ -5110,28 +5110,28 @@
         <v>164.8726257507078</v>
       </c>
       <c r="T9" t="n">
-        <v>80.41975308641975</v>
+        <v>80.41975308641973</v>
       </c>
       <c r="U9" t="n">
-        <v>74.91358024691357</v>
+        <v>74.91358024691358</v>
       </c>
       <c r="V9" t="n">
-        <v>65.46913580246911</v>
+        <v>65.46913580246913</v>
       </c>
       <c r="W9" t="n">
-        <v>51.77777777777776</v>
+        <v>51.77777777777777</v>
       </c>
       <c r="X9" t="n">
-        <v>69.64197530864196</v>
+        <v>69.64197530864193</v>
       </c>
       <c r="Y9" t="n">
-        <v>-66.58024691358023</v>
+        <v>-66.58024691358027</v>
       </c>
       <c r="Z9" t="n">
         <v>-157.0246913580247</v>
       </c>
       <c r="AA9" t="n">
-        <v>-127.8271604938272</v>
+        <v>-127.8271604938271</v>
       </c>
       <c r="AB9" t="n">
         <v>12.75</v>
@@ -5158,76 +5158,76 @@
         <v>-14.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19.41975308641972</v>
+        <v>19.41975308641973</v>
       </c>
       <c r="AK9" t="n">
-        <v>30.80246913580245</v>
+        <v>30.80246913580244</v>
       </c>
       <c r="AL9" t="n">
         <v>110.1358024691358</v>
       </c>
       <c r="AM9" t="n">
-        <v>-10.11111111111111</v>
+        <v>-10.11111111111114</v>
       </c>
       <c r="AN9" t="n">
         <v>116.1975308641975</v>
       </c>
       <c r="AO9" t="n">
-        <v>19.19753086419753</v>
+        <v>19.19753086419752</v>
       </c>
       <c r="AP9" t="n">
         <v>-165.8024691358025</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-180.2716049382716</v>
+        <v>-180.2716049382717</v>
       </c>
       <c r="AR9" t="n">
         <v>-115.3079903321431</v>
       </c>
       <c r="AS9" t="n">
-        <v>90.16718460818953</v>
+        <v>90.16718460818956</v>
       </c>
       <c r="AT9" t="n">
         <v>1030.326083923428</v>
       </c>
       <c r="AU9" t="n">
-        <v>-475.5507231564176</v>
+        <v>-475.5507231564175</v>
       </c>
       <c r="AV9" t="n">
         <v>513.4196259601068</v>
       </c>
       <c r="AW9" t="n">
-        <v>294.056021324821</v>
+        <v>294.0560213248209</v>
       </c>
       <c r="AX9" t="n">
-        <v>-650.0774770511823</v>
+        <v>-650.0774770511822</v>
       </c>
       <c r="AY9" t="n">
         <v>-881.7957874679967</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.007727886145398322</v>
+        <v>0.007727886145398308</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.4658108422496475</v>
+        <v>0.4658108422496476</v>
       </c>
       <c r="BB9" t="n">
-        <v>-0.3088921577503499</v>
+        <v>-0.30889215775035</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.4142824938271695</v>
+        <v>-0.4142824938271694</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.823819997256505</v>
+        <v>1.823819997256506</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.6550498052126263</v>
+        <v>-0.6550498052126265</v>
       </c>
       <c r="BF9" t="n">
         <v>-1.305447042264055</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.22326322005962</v>
+        <v>4.223263220059618</v>
       </c>
       <c r="BH9" t="n">
         <v>-3.581271280813474</v>
@@ -5251,7 +5251,7 @@
         <v>28.71949421451473</v>
       </c>
       <c r="BO9" t="n">
-        <v>-33.72314884208664</v>
+        <v>-33.72314884208665</v>
       </c>
       <c r="BP9" t="n">
         <v>14.08465276467182</v>
@@ -5260,16 +5260,16 @@
         <v>5.25971399642278</v>
       </c>
       <c r="BR9" t="n">
-        <v>-2.787859569500323</v>
+        <v>-2.787859569500322</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.7278362659538402</v>
+        <v>0.7278362659538434</v>
       </c>
       <c r="BT9" t="n">
         <v>3.358024691358025</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.3530864197530859</v>
+        <v>0.353086419753086</v>
       </c>
       <c r="BV9" t="n">
         <v>50.42031739948634</v>
@@ -5643,7 +5643,7 @@
         <v>158.7888505427495</v>
       </c>
       <c r="T10" t="n">
-        <v>44.16</v>
+        <v>44.15999999999999</v>
       </c>
       <c r="U10" t="n">
         <v>28.48</v>
@@ -5652,10 +5652,10 @@
         <v>-37.92</v>
       </c>
       <c r="W10" t="n">
-        <v>-90.88</v>
+        <v>-90.88000000000002</v>
       </c>
       <c r="X10" t="n">
-        <v>-27.32</v>
+        <v>-27.31999999999999</v>
       </c>
       <c r="Y10" t="n">
         <v>27.20000000000001</v>
@@ -5682,34 +5682,34 @@
         <v>-8.217499999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.07499999999999762</v>
+        <v>-0.07499999999999853</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.6224999999999974</v>
+        <v>-0.6224999999999982</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.070000000000002</v>
+        <v>1.070000000000001</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-4.640000000000018</v>
+        <v>-4.640000000000013</v>
       </c>
       <c r="AK10" t="n">
         <v>34.88</v>
       </c>
       <c r="AL10" t="n">
-        <v>17.28000000000001</v>
+        <v>17.28</v>
       </c>
       <c r="AM10" t="n">
-        <v>-145.28</v>
+        <v>-145.2800000000001</v>
       </c>
       <c r="AN10" t="n">
         <v>-111.52</v>
       </c>
       <c r="AO10" t="n">
-        <v>-8.000000000000014</v>
+        <v>-7.999999999999999</v>
       </c>
       <c r="AP10" t="n">
-        <v>92.36</v>
+        <v>92.36000000000001</v>
       </c>
       <c r="AQ10" t="n">
         <v>-15.52000000000001</v>
@@ -5721,7 +5721,7 @@
         <v>136.0295392739052</v>
       </c>
       <c r="AT10" t="n">
-        <v>280.5717417679745</v>
+        <v>280.5717417679746</v>
       </c>
       <c r="AU10" t="n">
         <v>-951.9196465585431</v>
@@ -5733,13 +5733,13 @@
         <v>-588.7718362311025</v>
       </c>
       <c r="AX10" t="n">
-        <v>395.6777427430886</v>
+        <v>395.6777427430887</v>
       </c>
       <c r="AY10" t="n">
-        <v>92.78107313290542</v>
+        <v>92.78107313290545</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0.221279840000001</v>
+        <v>-0.2212798400000009</v>
       </c>
       <c r="BA10" t="n">
         <v>0.1388140799999997</v>
@@ -5754,7 +5754,7 @@
         <v>0.1287044800000025</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.4729968000000034</v>
+        <v>0.4729968000000035</v>
       </c>
       <c r="BF10" t="n">
         <v>1.09247009101225</v>
@@ -5763,22 +5763,22 @@
         <v>1.480356538049</v>
       </c>
       <c r="BH10" t="n">
-        <v>-3.343293752245</v>
+        <v>-3.343293752245001</v>
       </c>
       <c r="BI10" t="n">
         <v>-5.20902486243275</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.4666099371347502</v>
+        <v>0.4666099371347504</v>
       </c>
       <c r="BK10" t="n">
         <v>54.20568518673994</v>
       </c>
       <c r="BL10" t="n">
-        <v>6.613121619681089</v>
+        <v>6.613121619681091</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0.2126135216758962</v>
+        <v>-0.2126135216758973</v>
       </c>
       <c r="BN10" t="n">
         <v>8.325225037974059</v>
@@ -5793,16 +5793,16 @@
         <v>-23.49249020878602</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.2908819041158686</v>
+        <v>0.2908819041158673</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.664423066349889</v>
+        <v>3.66442306634989</v>
       </c>
       <c r="BT10" t="n">
         <v>3.140000000000001</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.1131707317073175</v>
+        <v>-0.1131707317073174</v>
       </c>
       <c r="BV10" t="n">
         <v>53.51494470507993</v>
@@ -6176,10 +6176,10 @@
         <v>165.0434470173651</v>
       </c>
       <c r="T11" t="n">
-        <v>8.390532544378699</v>
+        <v>8.390532544378704</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.065088757396447</v>
+        <v>-7.065088757396449</v>
       </c>
       <c r="V11" t="n">
         <v>-51.29585798816568</v>
@@ -6197,16 +6197,16 @@
         <v>-4.207100591715978</v>
       </c>
       <c r="AA11" t="n">
-        <v>-45.26627218934911</v>
+        <v>-45.2662721893491</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.822485207100594</v>
+        <v>3.822485207100591</v>
       </c>
       <c r="AC11" t="n">
         <v>-4.508875739644969</v>
       </c>
       <c r="AD11" t="n">
-        <v>-8.201183431952661</v>
+        <v>-8.201183431952662</v>
       </c>
       <c r="AE11" t="n">
         <v>-1.816568047337278</v>
@@ -6215,19 +6215,19 @@
         <v>1.763313609467455</v>
       </c>
       <c r="AG11" t="n">
-        <v>-5.23076923076923</v>
+        <v>-5.230769230769232</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.3668639053254432</v>
+        <v>0.3668639053254434</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.065088757396449</v>
+        <v>1.065088757396448</v>
       </c>
       <c r="AJ11" t="n">
         <v>-14.53254437869823</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.011834319526616</v>
+        <v>2.011834319526617</v>
       </c>
       <c r="AL11" t="n">
         <v>-57.91124260355031</v>
@@ -6236,19 +6236,19 @@
         <v>-39.21893491124261</v>
       </c>
       <c r="AN11" t="n">
-        <v>-26.86390532544377</v>
+        <v>-26.86390532544378</v>
       </c>
       <c r="AO11" t="n">
         <v>57.07692307692309</v>
       </c>
       <c r="AP11" t="n">
-        <v>8.562130177514794</v>
+        <v>8.562130177514796</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-87.80473372781064</v>
+        <v>-87.80473372781066</v>
       </c>
       <c r="AR11" t="n">
-        <v>141.6804049280044</v>
+        <v>141.6804049280045</v>
       </c>
       <c r="AS11" t="n">
         <v>-166.7884122627317</v>
@@ -6257,22 +6257,22 @@
         <v>-304.9690286081874</v>
       </c>
       <c r="AU11" t="n">
-        <v>-467.5994240226446</v>
+        <v>-467.5994240226445</v>
       </c>
       <c r="AV11" t="n">
-        <v>86.08082319612075</v>
+        <v>86.08082319612073</v>
       </c>
       <c r="AW11" t="n">
-        <v>74.88521657203211</v>
+        <v>74.88521657203206</v>
       </c>
       <c r="AX11" t="n">
-        <v>-153.0232709777692</v>
+        <v>-153.0232709777693</v>
       </c>
       <c r="AY11" t="n">
-        <v>-23.82425394753631</v>
+        <v>-23.82425394753632</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0.5353799763313623</v>
+        <v>-0.5353799763313621</v>
       </c>
       <c r="BA11" t="n">
         <v>0.5167243550295832</v>
@@ -6284,10 +6284,10 @@
         <v>1.047600047337278</v>
       </c>
       <c r="BD11" t="n">
-        <v>-1.606886532544381</v>
+        <v>-1.60688653254438</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.7550756923076942</v>
+        <v>-0.7550756923076941</v>
       </c>
       <c r="BF11" t="n">
         <v>1.127684218825943</v>
@@ -6299,34 +6299,34 @@
         <v>-1.668008242934349</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.2850446276411766</v>
+        <v>0.2850446276411767</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.8257118725147768</v>
+        <v>-0.8257118725147767</v>
       </c>
       <c r="BK11" t="n">
         <v>80.52396787512133</v>
       </c>
       <c r="BL11" t="n">
-        <v>6.262611274691118</v>
+        <v>6.262611274691119</v>
       </c>
       <c r="BM11" t="n">
-        <v>-11.21292826846133</v>
+        <v>-11.21292826846132</v>
       </c>
       <c r="BN11" t="n">
         <v>-18.12868484635828</v>
       </c>
       <c r="BO11" t="n">
-        <v>2.095117888371124</v>
+        <v>2.095117888371123</v>
       </c>
       <c r="BP11" t="n">
-        <v>-4.653208826546831</v>
+        <v>-4.653208826546834</v>
       </c>
       <c r="BQ11" t="n">
         <v>-28.13189210741105</v>
       </c>
       <c r="BR11" t="n">
-        <v>-3.436596539315315</v>
+        <v>-3.436596539315316</v>
       </c>
       <c r="BS11" t="n">
         <v>-4.314501473867399</v>
@@ -6709,16 +6709,16 @@
         <v>169.3617930634205</v>
       </c>
       <c r="T12" t="n">
-        <v>90.84764542936287</v>
+        <v>90.84764542936281</v>
       </c>
       <c r="U12" t="n">
-        <v>102.9362880886426</v>
+        <v>102.9362880886427</v>
       </c>
       <c r="V12" t="n">
         <v>187.404432132964</v>
       </c>
       <c r="W12" t="n">
-        <v>81.28531855955677</v>
+        <v>81.28531855955674</v>
       </c>
       <c r="X12" t="n">
         <v>-44.88088642659284</v>
@@ -6727,31 +6727,31 @@
         <v>-320.825484764543</v>
       </c>
       <c r="Z12" t="n">
-        <v>-438.7229916897508</v>
+        <v>-438.7229916897509</v>
       </c>
       <c r="AA12" t="n">
-        <v>-228.7091412742382</v>
+        <v>-228.7091412742381</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.75831024930748</v>
+        <v>18.75831024930746</v>
       </c>
       <c r="AC12" t="n">
         <v>18.58864265927978</v>
       </c>
       <c r="AD12" t="n">
-        <v>24.65927977839336</v>
+        <v>24.65927977839337</v>
       </c>
       <c r="AE12" t="n">
         <v>15.00692520775624</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.639196675900288</v>
+        <v>1.639196675900285</v>
       </c>
       <c r="AG12" t="n">
         <v>-38.26454293628807</v>
       </c>
       <c r="AH12" t="n">
-        <v>-68.38711911357339</v>
+        <v>-68.38711911357338</v>
       </c>
       <c r="AI12" t="n">
         <v>-60.8005540166205</v>
@@ -6760,13 +6760,13 @@
         <v>26.00554016620498</v>
       </c>
       <c r="AK12" t="n">
-        <v>-27.69529085872576</v>
+        <v>-27.69529085872575</v>
       </c>
       <c r="AL12" t="n">
-        <v>246.3518005540166</v>
+        <v>246.3518005540167</v>
       </c>
       <c r="AM12" t="n">
-        <v>208.8642659279778</v>
+        <v>208.8642659279777</v>
       </c>
       <c r="AN12" t="n">
         <v>99.75069252077563</v>
@@ -6775,28 +6775,28 @@
         <v>-202.404432132964</v>
       </c>
       <c r="AP12" t="n">
-        <v>-561.6703601108034</v>
+        <v>-561.6703601108035</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-567.972299168975</v>
+        <v>-567.9722991689752</v>
       </c>
       <c r="AR12" t="n">
         <v>-145.8747290706363</v>
       </c>
       <c r="AS12" t="n">
-        <v>-94.39364814791128</v>
+        <v>-94.39364814791139</v>
       </c>
       <c r="AT12" t="n">
-        <v>1267.596155600117</v>
+        <v>1267.596155600116</v>
       </c>
       <c r="AU12" t="n">
-        <v>1136.571395288297</v>
+        <v>1136.571395288298</v>
       </c>
       <c r="AV12" t="n">
-        <v>659.9097839133874</v>
+        <v>659.9097839133877</v>
       </c>
       <c r="AW12" t="n">
-        <v>-832.991550579441</v>
+        <v>-832.9915505794409</v>
       </c>
       <c r="AX12" t="n">
         <v>-2009.471793235004</v>
@@ -6805,13 +6805,13 @@
         <v>-3817.727219032261</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.6839125983379526</v>
+        <v>-0.6839125983379521</v>
       </c>
       <c r="BA12" t="n">
         <v>-0.3723537506925242</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.69424726869806</v>
+        <v>1.694247268698061</v>
       </c>
       <c r="BC12" t="n">
         <v>-0.3705101828254866</v>
@@ -6820,49 +6820,49 @@
         <v>2.346847556786695</v>
       </c>
       <c r="BE12" t="n">
-        <v>-2.525240110803332</v>
+        <v>-2.525240110803331</v>
       </c>
       <c r="BF12" t="n">
-        <v>-1.846773822718272</v>
+        <v>-1.846773822718273</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.961930239375693</v>
+        <v>4.961930239375695</v>
       </c>
       <c r="BH12" t="n">
         <v>2.364671640765192</v>
       </c>
       <c r="BI12" t="n">
-        <v>4.367726955587563</v>
+        <v>4.367726955587564</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-4.739950214476854</v>
+        <v>-4.739950214476853</v>
       </c>
       <c r="BK12" t="n">
         <v>107.1943345146126</v>
       </c>
       <c r="BL12" t="n">
-        <v>-52.07039246978881</v>
+        <v>-52.07039246978884</v>
       </c>
       <c r="BM12" t="n">
-        <v>12.20571941125568</v>
+        <v>12.20571941125569</v>
       </c>
       <c r="BN12" t="n">
-        <v>-3.653032303638714</v>
+        <v>-3.653032303638713</v>
       </c>
       <c r="BO12" t="n">
-        <v>-19.01410765887526</v>
+        <v>-19.01410765887525</v>
       </c>
       <c r="BP12" t="n">
-        <v>64.99298470196622</v>
+        <v>64.99298470196618</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-58.26175753720585</v>
+        <v>-58.26175753720587</v>
       </c>
       <c r="BR12" t="n">
-        <v>21.25973762391234</v>
+        <v>21.25973762391235</v>
       </c>
       <c r="BS12" t="n">
-        <v>18.82713513097627</v>
+        <v>18.82713513097628</v>
       </c>
       <c r="BT12" t="n">
         <v>3.664819944598337</v>
@@ -7245,22 +7245,22 @@
         <v>15.00000000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>-3.222222222222213</v>
+        <v>-3.222222222222217</v>
       </c>
       <c r="V13" t="n">
-        <v>-5.66666666666666</v>
+        <v>-5.666666666666665</v>
       </c>
       <c r="W13" t="n">
-        <v>-28.44444444444445</v>
+        <v>-28.44444444444444</v>
       </c>
       <c r="X13" t="n">
         <v>-18.22222222222223</v>
       </c>
       <c r="Y13" t="n">
-        <v>-16.77777777777778</v>
+        <v>-16.77777777777777</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.44444444444444</v>
+        <v>3.444444444444439</v>
       </c>
       <c r="AA13" t="n">
         <v>11.55555555555555</v>
@@ -7272,19 +7272,19 @@
         <v>-3.135802469135802</v>
       </c>
       <c r="AD13" t="n">
-        <v>-5.703703703703703</v>
+        <v>-5.703703703703705</v>
       </c>
       <c r="AE13" t="n">
         <v>-3.160493827160495</v>
       </c>
       <c r="AF13" t="n">
-        <v>-1.283950617283951</v>
+        <v>-1.283950617283952</v>
       </c>
       <c r="AG13" t="n">
-        <v>-1.419753086419754</v>
+        <v>-1.419753086419755</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.7901234567901232</v>
+        <v>0.7901234567901231</v>
       </c>
       <c r="AI13" t="n">
         <v>1.432098765432099</v>
@@ -7293,34 +7293,34 @@
         <v>-4.333333333333345</v>
       </c>
       <c r="AK13" t="n">
-        <v>-14.22222222222224</v>
+        <v>-14.22222222222222</v>
       </c>
       <c r="AL13" t="n">
-        <v>-7.000000000000021</v>
+        <v>-7.000000000000014</v>
       </c>
       <c r="AM13" t="n">
-        <v>-68.44444444444443</v>
+        <v>-68.44444444444444</v>
       </c>
       <c r="AN13" t="n">
         <v>-10.22222222222221</v>
       </c>
       <c r="AO13" t="n">
-        <v>-40.44444444444443</v>
+        <v>-40.44444444444444</v>
       </c>
       <c r="AP13" t="n">
-        <v>4.777777777777793</v>
+        <v>4.777777777777791</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29.55555555555557</v>
+        <v>29.55555555555556</v>
       </c>
       <c r="AR13" t="n">
-        <v>24.47372501014848</v>
+        <v>24.4737250101484</v>
       </c>
       <c r="AS13" t="n">
-        <v>-16.05900590806016</v>
+        <v>-16.05900590806013</v>
       </c>
       <c r="AT13" t="n">
-        <v>-197.7797022905103</v>
+        <v>-197.7797022905104</v>
       </c>
       <c r="AU13" t="n">
         <v>-507.5405860731087</v>
@@ -7332,7 +7332,7 @@
         <v>-324.7231877302657</v>
       </c>
       <c r="AX13" t="n">
-        <v>-30.67591771028163</v>
+        <v>-30.6759177102816</v>
       </c>
       <c r="AY13" t="n">
         <v>173.6919474873022</v>
@@ -7341,10 +7341,10 @@
         <v>-0.1450826666666662</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.2261808888888884</v>
+        <v>-0.2261808888888883</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.3139906666666669</v>
+        <v>0.3139906666666668</v>
       </c>
       <c r="BC13" t="n">
         <v>-0.4737657777777771</v>
@@ -7356,43 +7356,43 @@
         <v>-0.06857244444444488</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.2165339311851889</v>
+        <v>0.2165339311851888</v>
       </c>
       <c r="BG13" t="n">
         <v>-1.160344100465755</v>
       </c>
       <c r="BH13" t="n">
-        <v>-2.165913872621005</v>
+        <v>-2.165913872621006</v>
       </c>
       <c r="BI13" t="n">
         <v>0.655413439479509</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.2932680500251861</v>
+        <v>-0.2932680500251856</v>
       </c>
       <c r="BK13" t="n">
         <v>36.91782010134514</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.2578400575445521</v>
+        <v>-0.2578400575445517</v>
       </c>
       <c r="BM13" t="n">
-        <v>2.781180993578596</v>
+        <v>2.781180993578598</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.544732677579379</v>
+        <v>-0.544732677579378</v>
       </c>
       <c r="BO13" t="n">
         <v>-15.66704723649465</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.2311533972754733</v>
+        <v>0.2311533972754721</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-7.461503556123667</v>
+        <v>-7.461503556123663</v>
       </c>
       <c r="BR13" t="n">
-        <v>-1.500088945939116</v>
+        <v>-1.500088945939117</v>
       </c>
       <c r="BS13" t="n">
         <v>1.890285227794392</v>
@@ -7401,7 +7401,7 @@
         <v>2.74074074074074</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0.1604938271604942</v>
+        <v>-0.1604938271604943</v>
       </c>
       <c r="BV13" t="n">
         <v>50.92069052511839</v>
@@ -7778,31 +7778,31 @@
         <v>40.6962706651288</v>
       </c>
       <c r="U14" t="n">
-        <v>37.64052287581699</v>
+        <v>37.64052287581698</v>
       </c>
       <c r="V14" t="n">
-        <v>-65.00384467512495</v>
+        <v>-65.00384467512494</v>
       </c>
       <c r="W14" t="n">
-        <v>-78.72895040369089</v>
+        <v>-78.72895040369092</v>
       </c>
       <c r="X14" t="n">
         <v>-20.04306036139946</v>
       </c>
       <c r="Y14" t="n">
-        <v>-19.68127643214148</v>
+        <v>-19.68127643214149</v>
       </c>
       <c r="Z14" t="n">
-        <v>-29.71626297577854</v>
+        <v>-29.71626297577855</v>
       </c>
       <c r="AA14" t="n">
         <v>5.111111111111112</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.467128027681663</v>
+        <v>6.467128027681664</v>
       </c>
       <c r="AC14" t="n">
-        <v>-6.235294117647055</v>
+        <v>-6.235294117647054</v>
       </c>
       <c r="AD14" t="n">
         <v>-2.048442906574393</v>
@@ -7814,34 +7814,34 @@
         <v>-5.401384083044983</v>
       </c>
       <c r="AG14" t="n">
-        <v>-1.089965397923876</v>
+        <v>-1.089965397923875</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.892733564013841</v>
+        <v>1.89273356401384</v>
       </c>
       <c r="AI14" t="n">
         <v>-0.5294117647058825</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-21.71549404075356</v>
+        <v>-21.71549404075355</v>
       </c>
       <c r="AK14" t="n">
         <v>49.30718954248367</v>
       </c>
       <c r="AL14" t="n">
-        <v>-62.61168781237986</v>
+        <v>-62.61168781237985</v>
       </c>
       <c r="AM14" t="n">
         <v>-121.2583621683968</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.074586697424056</v>
+        <v>1.074586697424067</v>
       </c>
       <c r="AO14" t="n">
-        <v>-29.17147251057287</v>
+        <v>-29.17147251057285</v>
       </c>
       <c r="AP14" t="n">
-        <v>-55.14763552479817</v>
+        <v>-55.14763552479815</v>
       </c>
       <c r="AQ14" t="n">
         <v>12.69934640522876</v>
@@ -7850,28 +7850,28 @@
         <v>190.6346764091636</v>
       </c>
       <c r="AS14" t="n">
-        <v>-301.972969849781</v>
+        <v>-301.9729698497811</v>
       </c>
       <c r="AT14" t="n">
         <v>-250.0469889768511</v>
       </c>
       <c r="AU14" t="n">
-        <v>-424.8081074292096</v>
+        <v>-424.8081074292097</v>
       </c>
       <c r="AV14" t="n">
-        <v>-7.016256950286696</v>
+        <v>-7.016256950286659</v>
       </c>
       <c r="AW14" t="n">
         <v>-285.3496842749265</v>
       </c>
       <c r="AX14" t="n">
-        <v>-139.6076075025251</v>
+        <v>-139.6076075025252</v>
       </c>
       <c r="AY14" t="n">
-        <v>70.96706632681267</v>
+        <v>70.96706632681264</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-1.470068346020762</v>
+        <v>-1.470068346020761</v>
       </c>
       <c r="BA14" t="n">
         <v>2.247489647058824</v>
@@ -7880,28 +7880,28 @@
         <v>-1.067482020761245</v>
       </c>
       <c r="BC14" t="n">
-        <v>-1.967807183391002</v>
+        <v>-1.967807183391003</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.1750959031141851</v>
+        <v>-0.1750959031141852</v>
       </c>
       <c r="BE14" t="n">
         <v>2.033415474048443</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.9124901419273281</v>
+        <v>0.9124901419273278</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.7852217203543863</v>
+        <v>-0.7852217203543864</v>
       </c>
       <c r="BH14" t="n">
         <v>-1.235388661143713</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0.1050564847218571</v>
+        <v>-0.1050564847218572</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.1430373745451775</v>
+        <v>-0.1430373745451776</v>
       </c>
       <c r="BK14" t="n">
         <v>82.04835537032527</v>
@@ -7910,10 +7910,10 @@
         <v>-11.34777652166649</v>
       </c>
       <c r="BM14" t="n">
-        <v>-9.663524532863248</v>
+        <v>-9.663524532863244</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0.4624929988711153</v>
+        <v>-0.4624929988711145</v>
       </c>
       <c r="BO14" t="n">
         <v>2.127437673469669</v>
@@ -7925,7 +7925,7 @@
         <v>21.03447320761377</v>
       </c>
       <c r="BR14" t="n">
-        <v>-7.939161315507011</v>
+        <v>-7.939161315507012</v>
       </c>
       <c r="BS14" t="n">
         <v>-14.04809028184223</v>
@@ -8308,19 +8308,19 @@
         <v>161.9016323436325</v>
       </c>
       <c r="T15" t="n">
-        <v>-6.317081404321</v>
+        <v>-6.317081404321001</v>
       </c>
       <c r="U15" t="n">
         <v>26.03187692901233</v>
       </c>
       <c r="V15" t="n">
-        <v>-62.48910108024692</v>
+        <v>-62.48910108024693</v>
       </c>
       <c r="W15" t="n">
         <v>-32.79996141975309</v>
       </c>
       <c r="X15" t="n">
-        <v>8.252507716049395</v>
+        <v>8.252507716049394</v>
       </c>
       <c r="Y15" t="n">
         <v>58.64318094135802</v>
@@ -8380,10 +8380,10 @@
         <v>13.8515625</v>
       </c>
       <c r="AR15" t="n">
-        <v>161.5864603048299</v>
+        <v>161.5864603048298</v>
       </c>
       <c r="AS15" t="n">
-        <v>-38.95893598328519</v>
+        <v>-38.95893598328522</v>
       </c>
       <c r="AT15" t="n">
         <v>-225.0931419407289</v>
@@ -8395,13 +8395,13 @@
         <v>135.4349576446162</v>
       </c>
       <c r="AW15" t="n">
-        <v>-38.92189082816253</v>
+        <v>-38.9218908281625</v>
       </c>
       <c r="AX15" t="n">
         <v>-283.066477112145</v>
       </c>
       <c r="AY15" t="n">
-        <v>36.35031682373025</v>
+        <v>36.35031682373027</v>
       </c>
       <c r="AZ15" t="n">
         <v>-0.46820796484375</v>
@@ -8413,7 +8413,7 @@
         <v>-1.968453554687499</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.3261387031250001</v>
+        <v>0.3261387031250002</v>
       </c>
       <c r="BD15" t="n">
         <v>-1.470587859375</v>
@@ -8422,7 +8422,7 @@
         <v>3.541924816406249</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.1874432907551452</v>
+        <v>-0.1874432907551453</v>
       </c>
       <c r="BG15" t="n">
         <v>1.247533218507519</v>
@@ -8434,16 +8434,16 @@
         <v>-1.936703296900934</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.3448773131434228</v>
+        <v>-0.3448773131434226</v>
       </c>
       <c r="BK15" t="n">
         <v>50.19557529283368</v>
       </c>
       <c r="BL15" t="n">
-        <v>2.065928548303594</v>
+        <v>2.065928548303595</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.1460748549009048</v>
+        <v>0.1460748549009041</v>
       </c>
       <c r="BN15" t="n">
         <v>-14.93307527035247</v>
@@ -8461,7 +8461,7 @@
         <v>8.582568504301575</v>
       </c>
       <c r="BS15" t="n">
-        <v>-6.122881689793001</v>
+        <v>-6.122881689793003</v>
       </c>
       <c r="BT15" t="n">
         <v>4.617235725308642</v>
@@ -8841,7 +8841,7 @@
         <v>165.0098433072437</v>
       </c>
       <c r="T16" t="n">
-        <v>-38.69135802469136</v>
+        <v>-38.69135802469137</v>
       </c>
       <c r="U16" t="n">
         <v>61.71604938271604</v>
@@ -8850,16 +8850,16 @@
         <v>-29.5925925925926</v>
       </c>
       <c r="W16" t="n">
-        <v>-55.33333333333334</v>
+        <v>-55.33333333333335</v>
       </c>
       <c r="X16" t="n">
-        <v>-35.16049382716049</v>
+        <v>-35.1604938271605</v>
       </c>
       <c r="Y16" t="n">
         <v>101.1111111111111</v>
       </c>
       <c r="Z16" t="n">
-        <v>-78.09876543209876</v>
+        <v>-78.09876543209877</v>
       </c>
       <c r="AA16" t="n">
         <v>-11.4074074074074</v>
@@ -8874,7 +8874,7 @@
         <v>-8.059199999999999</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.3632000000000009</v>
+        <v>0.3632000000000019</v>
       </c>
       <c r="AF16" t="n">
         <v>-10.5504</v>
@@ -8886,10 +8886,10 @@
         <v>1.672</v>
       </c>
       <c r="AI16" t="n">
-        <v>5.4112</v>
+        <v>5.411200000000001</v>
       </c>
       <c r="AJ16" t="n">
-        <v>74.7264</v>
+        <v>74.72639999999998</v>
       </c>
       <c r="AK16" t="n">
         <v>-106.712</v>
@@ -8898,7 +8898,7 @@
         <v>-111.3088</v>
       </c>
       <c r="AM16" t="n">
-        <v>-81.07520000000002</v>
+        <v>-81.07520000000001</v>
       </c>
       <c r="AN16" t="n">
         <v>161.4944</v>
@@ -8913,10 +8913,10 @@
         <v>55.6768</v>
       </c>
       <c r="AR16" t="n">
-        <v>165.255990895953</v>
+        <v>165.2559908959531</v>
       </c>
       <c r="AS16" t="n">
-        <v>145.0960538898398</v>
+        <v>145.0960538898397</v>
       </c>
       <c r="AT16" t="n">
         <v>-91.75296600931227</v>
@@ -8928,7 +8928,7 @@
         <v>-103.7499452552685</v>
       </c>
       <c r="AW16" t="n">
-        <v>-286.7534009550325</v>
+        <v>-286.7534009550326</v>
       </c>
       <c r="AX16" t="n">
         <v>-300.5642084835407</v>
@@ -8937,7 +8937,7 @@
         <v>198.9945422573642</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.05641556000000009</v>
+        <v>-0.05641556000000007</v>
       </c>
       <c r="BA16" t="n">
         <v>1.4412202</v>
@@ -8946,16 +8946,16 @@
         <v>-2.432217479999998</v>
       </c>
       <c r="BC16" t="n">
-        <v>-1.196331319999999</v>
+        <v>-1.19633132</v>
       </c>
       <c r="BD16" t="n">
         <v>-1.21204696</v>
       </c>
       <c r="BE16" t="n">
-        <v>4.684772879999997</v>
+        <v>4.684772879999999</v>
       </c>
       <c r="BF16" t="n">
-        <v>-1.596107969001061</v>
+        <v>-1.596107969001062</v>
       </c>
       <c r="BG16" t="n">
         <v>-0.5351330522710581</v>
@@ -8979,28 +8979,28 @@
         <v>20.89903962043478</v>
       </c>
       <c r="BN16" t="n">
-        <v>-18.24680608509773</v>
+        <v>-18.24680608509772</v>
       </c>
       <c r="BO16" t="n">
         <v>-15.38605368382574</v>
       </c>
       <c r="BP16" t="n">
-        <v>-32.47013997840907</v>
+        <v>-32.47013997840906</v>
       </c>
       <c r="BQ16" t="n">
         <v>11.77208701137361</v>
       </c>
       <c r="BR16" t="n">
-        <v>5.210980928535351</v>
+        <v>5.21098092853535</v>
       </c>
       <c r="BS16" t="n">
-        <v>5.893731825267061</v>
+        <v>5.893731825267062</v>
       </c>
       <c r="BT16" t="n">
         <v>4.924444444444444</v>
       </c>
       <c r="BU16" t="n">
-        <v>2.874092307692308</v>
+        <v>2.874092307692307</v>
       </c>
       <c r="BV16" t="n">
         <v>46.38815678971618</v>
@@ -9374,13 +9374,13 @@
         <v>161.5465897758217</v>
       </c>
       <c r="T17" t="n">
-        <v>48.41876543209878</v>
+        <v>48.41876543209874</v>
       </c>
       <c r="U17" t="n">
-        <v>3.521481481481477</v>
+        <v>3.521481481481479</v>
       </c>
       <c r="V17" t="n">
-        <v>1.393580246913573</v>
+        <v>1.393580246913572</v>
       </c>
       <c r="W17" t="n">
         <v>-36.41876543209876</v>
@@ -9389,31 +9389,31 @@
         <v>-20.08543209876543</v>
       </c>
       <c r="Y17" t="n">
-        <v>-11.09481481481481</v>
+        <v>-11.09481481481482</v>
       </c>
       <c r="Z17" t="n">
         <v>-29.29432098765432</v>
       </c>
       <c r="AA17" t="n">
-        <v>-74.9204938271605</v>
+        <v>-74.92049382716053</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.06172839506173</v>
+        <v>11.06172839506172</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.037037037037037</v>
+        <v>2.037037037037036</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.4320987654321</v>
+        <v>2.432098765432102</v>
       </c>
       <c r="AE17" t="n">
-        <v>-7.506172839506174</v>
+        <v>-7.506172839506173</v>
       </c>
       <c r="AF17" t="n">
-        <v>-5.728395061728395</v>
+        <v>-5.728395061728394</v>
       </c>
       <c r="AG17" t="n">
-        <v>-5.592592592592593</v>
+        <v>-5.592592592592592</v>
       </c>
       <c r="AH17" t="n">
         <v>-10.28395061728395</v>
@@ -9422,46 +9422,46 @@
         <v>-14.08641975308642</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24.24098765432099</v>
+        <v>24.24098765432097</v>
       </c>
       <c r="AK17" t="n">
         <v>5.432592592592592</v>
       </c>
       <c r="AL17" t="n">
-        <v>-24.96197530864199</v>
+        <v>-24.961975308642</v>
       </c>
       <c r="AM17" t="n">
-        <v>-34.41876543209875</v>
+        <v>-34.41876543209874</v>
       </c>
       <c r="AN17" t="n">
         <v>-86.64098765432098</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.749629629629617</v>
+        <v>9.749629629629641</v>
       </c>
       <c r="AP17" t="n">
-        <v>-8.494320987654323</v>
+        <v>-8.494320987654334</v>
       </c>
       <c r="AQ17" t="n">
         <v>-64.14271604938273</v>
       </c>
       <c r="AR17" t="n">
-        <v>-28.59110346233814</v>
+        <v>-28.59110346233808</v>
       </c>
       <c r="AS17" t="n">
-        <v>352.2165854211463</v>
+        <v>352.2165854211461</v>
       </c>
       <c r="AT17" t="n">
         <v>-276.1573059576792</v>
       </c>
       <c r="AU17" t="n">
-        <v>155.8195347398931</v>
+        <v>155.819534739893</v>
       </c>
       <c r="AV17" t="n">
-        <v>-882.1145819916064</v>
+        <v>-882.1145819916062</v>
       </c>
       <c r="AW17" t="n">
-        <v>94.47380421903156</v>
+        <v>94.47380421903158</v>
       </c>
       <c r="AX17" t="n">
         <v>-387.1663175001017</v>
@@ -9479,16 +9479,16 @@
         <v>-0.07920819753086417</v>
       </c>
       <c r="BC17" t="n">
-        <v>-0.1676574320987652</v>
+        <v>-0.1676574320987653</v>
       </c>
       <c r="BD17" t="n">
-        <v>-0.02834498765432094</v>
+        <v>-0.02834498765432093</v>
       </c>
       <c r="BE17" t="n">
         <v>-0.03258681481481479</v>
       </c>
       <c r="BF17" t="n">
-        <v>-0.6496147983081212</v>
+        <v>-0.6496147983081211</v>
       </c>
       <c r="BG17" t="n">
         <v>-1.409389109395828</v>
@@ -9497,22 +9497,22 @@
         <v>1.72184293931819</v>
       </c>
       <c r="BI17" t="n">
-        <v>-4.146460535228807</v>
+        <v>-4.146460535228806</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-2.374185128649596</v>
+        <v>-2.374185128649597</v>
       </c>
       <c r="BK17" t="n">
         <v>65.38242452648653</v>
       </c>
       <c r="BL17" t="n">
-        <v>-14.35704246430712</v>
+        <v>-14.35704246430713</v>
       </c>
       <c r="BM17" t="n">
-        <v>18.2476993009356</v>
+        <v>18.24769930093559</v>
       </c>
       <c r="BN17" t="n">
-        <v>-12.93970223598446</v>
+        <v>-12.93970223598445</v>
       </c>
       <c r="BO17" t="n">
         <v>31.6497157017883</v>
@@ -9521,19 +9521,19 @@
         <v>-26.42686230164754</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.9031328583716558</v>
+        <v>0.9031328583716559</v>
       </c>
       <c r="BR17" t="n">
         <v>-25.91665759561057</v>
       </c>
       <c r="BS17" t="n">
-        <v>3.733467063256478</v>
+        <v>3.73346706325648</v>
       </c>
       <c r="BT17" t="n">
         <v>2.723950617283951</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.5157656947727869</v>
+        <v>0.5157656947727867</v>
       </c>
       <c r="BV17" t="n">
         <v>53.54234057679677</v>
@@ -9907,16 +9907,16 @@
         <v>158.2678007788996</v>
       </c>
       <c r="T18" t="n">
-        <v>55.81452104493945</v>
+        <v>55.81452104493947</v>
       </c>
       <c r="U18" t="n">
-        <v>15.6556356078466</v>
+        <v>15.65563560784659</v>
       </c>
       <c r="V18" t="n">
         <v>-70.24599554938638</v>
       </c>
       <c r="W18" t="n">
-        <v>-30.54465669317939</v>
+        <v>-30.54465669317938</v>
       </c>
       <c r="X18" t="n">
         <v>-13.96980045681215</v>
@@ -9925,7 +9925,7 @@
         <v>-110.2644442975595</v>
       </c>
       <c r="Z18" t="n">
-        <v>50.83985869668993</v>
+        <v>50.83985869668994</v>
       </c>
       <c r="AA18" t="n">
         <v>19.2538465493056</v>
@@ -9934,13 +9934,13 @@
         <v>12.97620464009518</v>
       </c>
       <c r="AC18" t="n">
-        <v>4.545508625817968</v>
+        <v>4.545508625817967</v>
       </c>
       <c r="AD18" t="n">
-        <v>-6.803688280785244</v>
+        <v>-6.803688280785245</v>
       </c>
       <c r="AE18" t="n">
-        <v>-12.33670434265318</v>
+        <v>-12.33670434265319</v>
       </c>
       <c r="AF18" t="n">
         <v>-10.72456870910173</v>
@@ -9949,16 +9949,16 @@
         <v>-11.32242712671029</v>
       </c>
       <c r="AH18" t="n">
-        <v>-6.605591909577632</v>
+        <v>-6.605591909577631</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.02498512790005791</v>
+        <v>0.02498512790005812</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3.06365258774542</v>
+        <v>3.063652587745423</v>
       </c>
       <c r="AK18" t="n">
-        <v>90.85722784057111</v>
+        <v>90.8572278405711</v>
       </c>
       <c r="AL18" t="n">
         <v>-163.2629387269482</v>
@@ -9967,7 +9967,7 @@
         <v>-181.9541939321832</v>
       </c>
       <c r="AN18" t="n">
-        <v>74.34919690660321</v>
+        <v>74.3491969066032</v>
       </c>
       <c r="AO18" t="n">
         <v>-92.13384889946464</v>
@@ -9976,19 +9976,19 @@
         <v>66.07971445568111</v>
       </c>
       <c r="AQ18" t="n">
-        <v>188.0636525877453</v>
+        <v>188.0636525877454</v>
       </c>
       <c r="AR18" t="n">
-        <v>31.52701187494978</v>
+        <v>31.52701187494973</v>
       </c>
       <c r="AS18" t="n">
-        <v>511.2791024172734</v>
+        <v>511.2791024172733</v>
       </c>
       <c r="AT18" t="n">
         <v>-229.5623443508412</v>
       </c>
       <c r="AU18" t="n">
-        <v>-982.8263788078018</v>
+        <v>-982.8263788078019</v>
       </c>
       <c r="AV18" t="n">
         <v>90.68921428421717</v>
@@ -9997,16 +9997,16 @@
         <v>-764.5203360426732</v>
       </c>
       <c r="AX18" t="n">
-        <v>-308.7463225622843</v>
+        <v>-308.7463225622842</v>
       </c>
       <c r="AY18" t="n">
-        <v>243.4548490549456</v>
+        <v>243.4548490549455</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.2884026067816775</v>
+        <v>-0.2884026067816777</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.7451430690065435</v>
+        <v>0.7451430690065431</v>
       </c>
       <c r="BB18" t="n">
         <v>-1.889256725758476</v>
@@ -10021,43 +10021,43 @@
         <v>-1.230826612135633</v>
       </c>
       <c r="BF18" t="n">
-        <v>-0.04663072020066056</v>
+        <v>-0.0466307202006605</v>
       </c>
       <c r="BG18" t="n">
         <v>-0.2169846285801761</v>
       </c>
       <c r="BH18" t="n">
-        <v>-5.509371411592486</v>
+        <v>-5.509371411592487</v>
       </c>
       <c r="BI18" t="n">
-        <v>-0.2437573253212793</v>
+        <v>-0.2437573253212796</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-0.0246788465903629</v>
+        <v>-0.02467884659036257</v>
       </c>
       <c r="BK18" t="n">
         <v>57.83774866904191</v>
       </c>
       <c r="BL18" t="n">
-        <v>-5.528170235547945</v>
+        <v>-5.528170235547944</v>
       </c>
       <c r="BM18" t="n">
-        <v>4.33146244161298</v>
+        <v>4.331462441612981</v>
       </c>
       <c r="BN18" t="n">
-        <v>1.510572269183785</v>
+        <v>1.510572269183784</v>
       </c>
       <c r="BO18" t="n">
         <v>-21.43601803354662</v>
       </c>
       <c r="BP18" t="n">
-        <v>1.920729295034202</v>
+        <v>1.920729295034203</v>
       </c>
       <c r="BQ18" t="n">
         <v>-11.26172736647462</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.05045142904497624</v>
+        <v>0.0504514290449788</v>
       </c>
       <c r="BS18" t="n">
         <v>-19.54281130014352</v>
@@ -10066,7 +10066,7 @@
         <v>4.268740681986766</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.0712477345987307</v>
+        <v>0.07124773459873078</v>
       </c>
       <c r="BV18" t="n">
         <v>49.606251789356</v>
@@ -10446,10 +10446,10 @@
         <v>12.92929292929293</v>
       </c>
       <c r="V19" t="n">
-        <v>-26.9742883379247</v>
+        <v>-26.97428833792469</v>
       </c>
       <c r="W19" t="n">
-        <v>-55.72451790633608</v>
+        <v>-55.72451790633609</v>
       </c>
       <c r="X19" t="n">
         <v>-16.47750229568411</v>
@@ -10461,13 +10461,13 @@
         <v>-4.627180899908176</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.851239669421483</v>
+        <v>3.851239669421485</v>
       </c>
       <c r="AB19" t="n">
         <v>6.404958677685949</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.909090909090914</v>
+        <v>-4.909090909090913</v>
       </c>
       <c r="AD19" t="n">
         <v>-5.347107438016532</v>
@@ -10476,7 +10476,7 @@
         <v>-0.71900826446281</v>
       </c>
       <c r="AF19" t="n">
-        <v>-1.917355371900827</v>
+        <v>-1.917355371900826</v>
       </c>
       <c r="AG19" t="n">
         <v>-4.793388429752067</v>
@@ -10488,7 +10488,7 @@
         <v>-3.355371900826445</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-2.359963269054175</v>
+        <v>-2.359963269054169</v>
       </c>
       <c r="AK19" t="n">
         <v>8.535353535353538</v>
@@ -10497,10 +10497,10 @@
         <v>-11.39853076216712</v>
       </c>
       <c r="AM19" t="n">
-        <v>-89.60330578512398</v>
+        <v>-89.60330578512396</v>
       </c>
       <c r="AN19" t="n">
-        <v>-7.053259871441694</v>
+        <v>-7.053259871441692</v>
       </c>
       <c r="AO19" t="n">
         <v>-35.90082644628099</v>
@@ -10509,13 +10509,13 @@
         <v>-19.20293847566575</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-5.209366391184577</v>
+        <v>-5.209366391184578</v>
       </c>
       <c r="AR19" t="n">
-        <v>95.16840277927977</v>
+        <v>95.1684027792798</v>
       </c>
       <c r="AS19" t="n">
-        <v>-124.2722683985387</v>
+        <v>-124.2722683985386</v>
       </c>
       <c r="AT19" t="n">
         <v>-270.3232407885151</v>
@@ -10530,7 +10530,7 @@
         <v>-280.7905994933863</v>
       </c>
       <c r="AX19" t="n">
-        <v>-178.6062045012897</v>
+        <v>-178.6062045012896</v>
       </c>
       <c r="AY19" t="n">
         <v>-333.2967556865639</v>
@@ -10545,10 +10545,10 @@
         <v>-0.2132038971533519</v>
       </c>
       <c r="BC19" t="n">
-        <v>-1.258564958677684</v>
+        <v>-1.258564958677685</v>
       </c>
       <c r="BD19" t="n">
-        <v>-0.7127816675849398</v>
+        <v>-0.7127816675849399</v>
       </c>
       <c r="BE19" t="n">
         <v>-0.4783045730027548</v>
@@ -10560,19 +10560,19 @@
         <v>-1.897066616705518</v>
       </c>
       <c r="BH19" t="n">
-        <v>-0.8944172569959672</v>
+        <v>-0.8944172569959671</v>
       </c>
       <c r="BI19" t="n">
         <v>0.49470357046531</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.04937239961358408</v>
+        <v>0.04937239961358404</v>
       </c>
       <c r="BK19" t="n">
         <v>45.1950264078616</v>
       </c>
       <c r="BL19" t="n">
-        <v>4.123761446581046</v>
+        <v>4.123761446581047</v>
       </c>
       <c r="BM19" t="n">
         <v>-2.507880309615896</v>
@@ -10581,13 +10581,13 @@
         <v>-11.6261229512837</v>
       </c>
       <c r="BO19" t="n">
-        <v>-4.311633633157533</v>
+        <v>-4.311633633157532</v>
       </c>
       <c r="BP19" t="n">
         <v>2.382390333578896</v>
       </c>
       <c r="BQ19" t="n">
-        <v>-8.409245073817875</v>
+        <v>-8.409245073817878</v>
       </c>
       <c r="BR19" t="n">
         <v>2.349650478719966</v>
@@ -10599,7 +10599,7 @@
         <v>3.875114784205693</v>
       </c>
       <c r="BU19" t="n">
-        <v>-0.06941068438394632</v>
+        <v>-0.06941068438394615</v>
       </c>
       <c r="BV19" t="n">
         <v>51.04395033556185</v>
@@ -10979,7 +10979,7 @@
         <v>17.74556213017752</v>
       </c>
       <c r="V20" t="n">
-        <v>-21.78172255095332</v>
+        <v>-21.78172255095333</v>
       </c>
       <c r="W20" t="n">
         <v>-14.25772518080211</v>
@@ -10988,88 +10988,88 @@
         <v>-13.87771203155819</v>
       </c>
       <c r="Y20" t="n">
-        <v>-63.06114398422092</v>
+        <v>-63.06114398422093</v>
       </c>
       <c r="Z20" t="n">
-        <v>-54.68573307034846</v>
+        <v>-54.68573307034849</v>
       </c>
       <c r="AA20" t="n">
-        <v>-71.90138067061145</v>
+        <v>-71.9013806706114</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.871794871794872</v>
+        <v>9.871794871794867</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.6074950690335311</v>
+        <v>-0.6074950690335301</v>
       </c>
       <c r="AD20" t="n">
-        <v>-7.306377383300461</v>
+        <v>-7.306377383300464</v>
       </c>
       <c r="AE20" t="n">
-        <v>-9.287310979618672</v>
+        <v>-9.287310979618674</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.386587771203154</v>
+        <v>2.386587771203156</v>
       </c>
       <c r="AG20" t="n">
-        <v>4.11439842209073</v>
+        <v>4.114398422090729</v>
       </c>
       <c r="AH20" t="n">
-        <v>-12.922419460881</v>
+        <v>-12.92241946088099</v>
       </c>
       <c r="AI20" t="n">
         <v>-12.45167652859961</v>
       </c>
       <c r="AJ20" t="n">
-        <v>5.871794871794879</v>
+        <v>5.871794871794872</v>
       </c>
       <c r="AK20" t="n">
-        <v>60.36094674556213</v>
+        <v>60.36094674556212</v>
       </c>
       <c r="AL20" t="n">
-        <v>-41.55095332018408</v>
+        <v>-41.55095332018409</v>
       </c>
       <c r="AM20" t="n">
         <v>-78.155161078238</v>
       </c>
       <c r="AN20" t="n">
-        <v>27.17357001972389</v>
+        <v>27.17357001972387</v>
       </c>
       <c r="AO20" t="n">
-        <v>-88.31755424063114</v>
+        <v>-88.31755424063115</v>
       </c>
       <c r="AP20" t="n">
-        <v>29.23734385272846</v>
+        <v>29.23734385272847</v>
       </c>
       <c r="AQ20" t="n">
         <v>-197.1065088757396</v>
       </c>
       <c r="AR20" t="n">
-        <v>-101.9869278412689</v>
+        <v>-101.9869278412688</v>
       </c>
       <c r="AS20" t="n">
         <v>353.3240213505821</v>
       </c>
       <c r="AT20" t="n">
-        <v>-173.4535098184046</v>
+        <v>-173.4535098184045</v>
       </c>
       <c r="AU20" t="n">
-        <v>-793.2548988901939</v>
+        <v>-793.254898890194</v>
       </c>
       <c r="AV20" t="n">
         <v>-145.4136099561792</v>
       </c>
       <c r="AW20" t="n">
-        <v>154.3161052230512</v>
+        <v>154.3161052230513</v>
       </c>
       <c r="AX20" t="n">
-        <v>672.2194117823373</v>
+        <v>672.2194117823369</v>
       </c>
       <c r="AY20" t="n">
-        <v>-1555.939619257098</v>
+        <v>-1555.939619257099</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.003790769230769694</v>
+        <v>0.003790769230769689</v>
       </c>
       <c r="BA20" t="n">
         <v>0.3849008994082844</v>
@@ -11081,7 +11081,7 @@
         <v>-0.191788189349112</v>
       </c>
       <c r="BD20" t="n">
-        <v>-0.08542300591715957</v>
+        <v>-0.08542300591715955</v>
       </c>
       <c r="BE20" t="n">
         <v>-1.441862035502957</v>
@@ -11090,16 +11090,16 @@
         <v>-0.8358413207692258</v>
       </c>
       <c r="BG20" t="n">
-        <v>-0.05768023539780986</v>
+        <v>-0.05768023539780992</v>
       </c>
       <c r="BH20" t="n">
-        <v>-4.161709842601283</v>
+        <v>-4.161709842601282</v>
       </c>
       <c r="BI20" t="n">
-        <v>-1.957574492910594</v>
+        <v>-1.957574492910593</v>
       </c>
       <c r="BJ20" t="n">
-        <v>3.779125957935682</v>
+        <v>3.779125957935683</v>
       </c>
       <c r="BK20" t="n">
         <v>53.89587407571086</v>
@@ -11108,13 +11108,13 @@
         <v>-12.60752190863091</v>
       </c>
       <c r="BM20" t="n">
-        <v>3.392939326521906</v>
+        <v>3.392939326521907</v>
       </c>
       <c r="BN20" t="n">
         <v>9.519956439228116</v>
       </c>
       <c r="BO20" t="n">
-        <v>-19.06209804608995</v>
+        <v>-19.06209804608996</v>
       </c>
       <c r="BP20" t="n">
         <v>-18.46400823201702</v>
@@ -11126,13 +11126,13 @@
         <v>30.57943637288009</v>
       </c>
       <c r="BS20" t="n">
-        <v>-27.28421806760597</v>
+        <v>-27.28421806760596</v>
       </c>
       <c r="BT20" t="n">
         <v>3.074293228139382</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.1505588428665354</v>
+        <v>0.1505588428665352</v>
       </c>
       <c r="BV20" t="n">
         <v>50.47607916908852</v>
@@ -11506,40 +11506,40 @@
         <v>167.9835288062385</v>
       </c>
       <c r="T21" t="n">
-        <v>80.59259259259258</v>
+        <v>80.59259259259255</v>
       </c>
       <c r="U21" t="n">
-        <v>47.91358024691358</v>
+        <v>47.9135802469136</v>
       </c>
       <c r="V21" t="n">
-        <v>68.81481481481481</v>
+        <v>68.81481481481475</v>
       </c>
       <c r="W21" t="n">
         <v>138.7777777777778</v>
       </c>
       <c r="X21" t="n">
-        <v>-9.012345679012348</v>
+        <v>-9.01234567901235</v>
       </c>
       <c r="Y21" t="n">
         <v>-160.2222222222222</v>
       </c>
       <c r="Z21" t="n">
-        <v>-123.4444444444445</v>
+        <v>-123.4444444444444</v>
       </c>
       <c r="AA21" t="n">
         <v>-111.5308641975309</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.16148148148148</v>
+        <v>16.16148148148147</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.910617283950621</v>
+        <v>6.910617283950613</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.085925925925928</v>
+        <v>1.085925925925929</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.488888888888889</v>
+        <v>1.488888888888891</v>
       </c>
       <c r="AF21" t="n">
         <v>-15.07308641975309</v>
@@ -11548,22 +11548,22 @@
         <v>-28.27555555555555</v>
       </c>
       <c r="AH21" t="n">
-        <v>-8.408888888888891</v>
+        <v>-8.408888888888892</v>
       </c>
       <c r="AI21" t="n">
         <v>-3.222716049382718</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21.8148148148148</v>
+        <v>21.81481481481482</v>
       </c>
       <c r="AK21" t="n">
-        <v>81.58024691358024</v>
+        <v>81.58024691358018</v>
       </c>
       <c r="AL21" t="n">
-        <v>-19.74074074074073</v>
+        <v>-19.74074074074074</v>
       </c>
       <c r="AM21" t="n">
-        <v>171.4444444444445</v>
+        <v>171.4444444444444</v>
       </c>
       <c r="AN21" t="n">
         <v>113.0987654320988</v>
@@ -11572,25 +11572,25 @@
         <v>-226.3333333333334</v>
       </c>
       <c r="AP21" t="n">
-        <v>-139.7777777777778</v>
+        <v>-139.7777777777779</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-183.4197530864197</v>
+        <v>-183.4197530864198</v>
       </c>
       <c r="AR21" t="n">
-        <v>-105.0146399157523</v>
+        <v>-105.0146399157522</v>
       </c>
       <c r="AS21" t="n">
         <v>1098.636572657587</v>
       </c>
       <c r="AT21" t="n">
-        <v>-139.9823682207492</v>
+        <v>-139.9823682207491</v>
       </c>
       <c r="AU21" t="n">
-        <v>15.32197406154049</v>
+        <v>15.32197406154048</v>
       </c>
       <c r="AV21" t="n">
-        <v>484.856177486022</v>
+        <v>484.8561774860221</v>
       </c>
       <c r="AW21" t="n">
         <v>-1651.381871092267</v>
@@ -11602,10 +11602,10 @@
         <v>-513.2502219869541</v>
       </c>
       <c r="AZ21" t="n">
-        <v>-0.368512438518518</v>
+        <v>-0.3685124385185178</v>
       </c>
       <c r="BA21" t="n">
-        <v>-0.8818544375308623</v>
+        <v>-0.8818544375308625</v>
       </c>
       <c r="BB21" t="n">
         <v>-0.4122682251851846</v>
@@ -11614,7 +11614,7 @@
         <v>3.134784888888886</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.222434800987655</v>
+        <v>1.222434800987656</v>
       </c>
       <c r="BE21" t="n">
         <v>-1.785603431111107</v>
@@ -11629,34 +11629,34 @@
         <v>-2.119647225283198</v>
       </c>
       <c r="BI21" t="n">
-        <v>1.477692474511497</v>
+        <v>1.477692474511498</v>
       </c>
       <c r="BJ21" t="n">
-        <v>-0.8997685087356775</v>
+        <v>-0.8997685087356777</v>
       </c>
       <c r="BK21" t="n">
         <v>88.16427010906676</v>
       </c>
       <c r="BL21" t="n">
-        <v>-26.0642436743257</v>
+        <v>-26.06424367432572</v>
       </c>
       <c r="BM21" t="n">
         <v>13.19428714515293</v>
       </c>
       <c r="BN21" t="n">
-        <v>9.229725509037959</v>
+        <v>9.229725509037957</v>
       </c>
       <c r="BO21" t="n">
-        <v>-36.84964481565316</v>
+        <v>-36.84964481565319</v>
       </c>
       <c r="BP21" t="n">
         <v>6.746072273468876</v>
       </c>
       <c r="BQ21" t="n">
-        <v>-23.69120101140769</v>
+        <v>-23.6912010114077</v>
       </c>
       <c r="BR21" t="n">
-        <v>-3.461176957662112</v>
+        <v>-3.461176957662113</v>
       </c>
       <c r="BS21" t="n">
         <v>21.29921747241574</v>
@@ -11665,7 +11665,7 @@
         <v>5.061728395061729</v>
       </c>
       <c r="BU21" t="n">
-        <v>0.4544753086419751</v>
+        <v>0.4544753086419753</v>
       </c>
       <c r="BV21" t="n">
         <v>45.8269434060856</v>
@@ -12048,58 +12048,58 @@
         <v>-24.51840877914952</v>
       </c>
       <c r="W22" t="n">
-        <v>-4.814485596707817</v>
+        <v>-4.81448559670782</v>
       </c>
       <c r="X22" t="n">
-        <v>-33.78946502057613</v>
+        <v>-33.78946502057614</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.75347050754459</v>
+        <v>10.75347050754458</v>
       </c>
       <c r="Z22" t="n">
-        <v>-38.18600823045267</v>
+        <v>-38.18600823045268</v>
       </c>
       <c r="AA22" t="n">
-        <v>-21.30238683127572</v>
+        <v>-21.30238683127571</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.090000000000002</v>
+        <v>7.09</v>
       </c>
       <c r="AC22" t="n">
         <v>-2.989999999999998</v>
       </c>
       <c r="AD22" t="n">
-        <v>-7.919999999999998</v>
+        <v>-7.919999999999997</v>
       </c>
       <c r="AE22" t="n">
         <v>-2.06</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.9300000000000003</v>
+        <v>0.9300000000000004</v>
       </c>
       <c r="AG22" t="n">
-        <v>-7.32</v>
+        <v>-7.319999999999999</v>
       </c>
       <c r="AH22" t="n">
-        <v>-9.449999999999999</v>
+        <v>-9.449999999999998</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.890000000000001</v>
+        <v>-0.8900000000000007</v>
       </c>
       <c r="AJ22" t="n">
         <v>-10.39555555555554</v>
       </c>
       <c r="AK22" t="n">
-        <v>61.95111111111112</v>
+        <v>61.95111111111114</v>
       </c>
       <c r="AL22" t="n">
-        <v>36.94222222222223</v>
+        <v>36.94222222222225</v>
       </c>
       <c r="AM22" t="n">
         <v>-150.9733333333333</v>
       </c>
       <c r="AN22" t="n">
-        <v>-10.14666666666668</v>
+        <v>-10.14666666666667</v>
       </c>
       <c r="AO22" t="n">
         <v>-102.9022222222222</v>
@@ -12111,16 +12111,16 @@
         <v>-185.76</v>
       </c>
       <c r="AR22" t="n">
-        <v>104.0690830102752</v>
+        <v>104.0690830102751</v>
       </c>
       <c r="AS22" t="n">
-        <v>85.27170970810499</v>
+        <v>85.27170970810496</v>
       </c>
       <c r="AT22" t="n">
         <v>-327.2783373011249</v>
       </c>
       <c r="AU22" t="n">
-        <v>-614.7966825667052</v>
+        <v>-614.7966825667053</v>
       </c>
       <c r="AV22" t="n">
         <v>469.291880002015</v>
@@ -12138,7 +12138,7 @@
         <v>-0.32620464</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.8055958399999992</v>
+        <v>0.8055958399999991</v>
       </c>
       <c r="BB22" t="n">
         <v>0.1416319199999999</v>
@@ -12150,28 +12150,28 @@
         <v>-1.558557679999999</v>
       </c>
       <c r="BE22" t="n">
-        <v>-0.9284124799999999</v>
+        <v>-0.92841248</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.7865895998119261</v>
+        <v>0.7865895998119262</v>
       </c>
       <c r="BG22" t="n">
         <v>-1.979006262271686</v>
       </c>
       <c r="BH22" t="n">
-        <v>-3.07025161408364</v>
+        <v>-3.070251614083639</v>
       </c>
       <c r="BI22" t="n">
         <v>4.380361225818934</v>
       </c>
       <c r="BJ22" t="n">
-        <v>-6.91983314852658</v>
+        <v>-6.919833148526582</v>
       </c>
       <c r="BK22" t="n">
         <v>41.86317084900264</v>
       </c>
       <c r="BL22" t="n">
-        <v>3.6787192831561</v>
+        <v>3.678719283156103</v>
       </c>
       <c r="BM22" t="n">
         <v>-8.773424422931029</v>
@@ -12198,7 +12198,7 @@
         <v>3.685541838134432</v>
       </c>
       <c r="BU22" t="n">
-        <v>-0.3353405017921143</v>
+        <v>-0.3353405017921142</v>
       </c>
       <c r="BV22" t="n">
         <v>50.68834512661801</v>
@@ -12572,13 +12572,13 @@
         <v>154.5229383232854</v>
       </c>
       <c r="T23" t="n">
-        <v>8.653061224489797</v>
+        <v>8.653061224489795</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.65306122448979</v>
+        <v>-1.653061224489791</v>
       </c>
       <c r="V23" t="n">
-        <v>-22.26530612244898</v>
+        <v>-22.26530612244897</v>
       </c>
       <c r="W23" t="n">
         <v>-24.71428571428572</v>
@@ -12602,13 +12602,13 @@
         <v>-3.653061224489794</v>
       </c>
       <c r="AD23" t="n">
-        <v>-4.693877551020407</v>
+        <v>-4.693877551020406</v>
       </c>
       <c r="AE23" t="n">
         <v>-2.428571428571429</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.9591836734693885</v>
+        <v>-0.9591836734693892</v>
       </c>
       <c r="AG23" t="n">
         <v>-1.16326530612245</v>
@@ -12617,19 +12617,19 @@
         <v>1.326530612244897</v>
       </c>
       <c r="AI23" t="n">
-        <v>1.83673469387755</v>
+        <v>1.836734693877551</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-3.632653061224486</v>
+        <v>-3.632653061224484</v>
       </c>
       <c r="AK23" t="n">
         <v>-10.93877551020407</v>
       </c>
       <c r="AL23" t="n">
-        <v>-20.6938775510204</v>
+        <v>-20.69387755102041</v>
       </c>
       <c r="AM23" t="n">
-        <v>-64.14285714285714</v>
+        <v>-64.14285714285715</v>
       </c>
       <c r="AN23" t="n">
         <v>36.75510204081633</v>
@@ -12644,13 +12644,13 @@
         <v>-8.448979591836736</v>
       </c>
       <c r="AR23" t="n">
-        <v>90.60941286832603</v>
+        <v>90.60941286832605</v>
       </c>
       <c r="AS23" t="n">
         <v>-186.3948002446855</v>
       </c>
       <c r="AT23" t="n">
-        <v>-287.6055170367223</v>
+        <v>-287.6055170367222</v>
       </c>
       <c r="AU23" t="n">
         <v>-458.2702872924489</v>
@@ -12662,7 +12662,7 @@
         <v>40.05182801195009</v>
       </c>
       <c r="AX23" t="n">
-        <v>-20.99568079863628</v>
+        <v>-20.99568079863626</v>
       </c>
       <c r="AY23" t="n">
         <v>90.5467939137711</v>
@@ -12671,43 +12671,43 @@
         <v>-0.1643096780045349</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.8139943764172332</v>
+        <v>0.8139943764172329</v>
       </c>
       <c r="BB23" t="n">
-        <v>-0.008714975056690739</v>
+        <v>-0.008714975056690747</v>
       </c>
       <c r="BC23" t="n">
         <v>-0.4603815238095239</v>
       </c>
       <c r="BD23" t="n">
-        <v>-0.05165045804988752</v>
+        <v>-0.05165045804988751</v>
       </c>
       <c r="BE23" t="n">
         <v>-0.2165255963718813</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.6833788285948705</v>
+        <v>0.6833788285948703</v>
       </c>
       <c r="BG23" t="n">
         <v>-1.603488185275598</v>
       </c>
       <c r="BH23" t="n">
-        <v>-1.958969615423953</v>
+        <v>-1.958969615423954</v>
       </c>
       <c r="BI23" t="n">
-        <v>-0.09598259218690389</v>
+        <v>-0.09598259218690396</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.3222922903980973</v>
+        <v>0.3222922903980971</v>
       </c>
       <c r="BK23" t="n">
         <v>28.73295899569978</v>
       </c>
       <c r="BL23" t="n">
-        <v>4.127056146149595</v>
+        <v>4.127056146149593</v>
       </c>
       <c r="BM23" t="n">
-        <v>-1.783952378978395</v>
+        <v>-1.783952378978397</v>
       </c>
       <c r="BN23" t="n">
         <v>-9.268678571501804</v>
@@ -12731,7 +12731,7 @@
         <v>3.727891156462586</v>
       </c>
       <c r="BU23" t="n">
-        <v>-0.1651205936920221</v>
+        <v>-0.165120593692022</v>
       </c>
       <c r="BV23" t="n">
         <v>49.6694770642318</v>
@@ -13108,22 +13108,22 @@
         <v>15.00000000000001</v>
       </c>
       <c r="U24" t="n">
-        <v>-3.222222222222213</v>
+        <v>-3.222222222222217</v>
       </c>
       <c r="V24" t="n">
-        <v>-5.66666666666666</v>
+        <v>-5.666666666666665</v>
       </c>
       <c r="W24" t="n">
-        <v>-28.44444444444445</v>
+        <v>-28.44444444444444</v>
       </c>
       <c r="X24" t="n">
         <v>-18.22222222222223</v>
       </c>
       <c r="Y24" t="n">
-        <v>-16.77777777777778</v>
+        <v>-16.77777777777777</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.44444444444444</v>
+        <v>3.444444444444439</v>
       </c>
       <c r="AA24" t="n">
         <v>11.55555555555555</v>
@@ -13135,19 +13135,19 @@
         <v>-3.135802469135802</v>
       </c>
       <c r="AD24" t="n">
-        <v>-5.703703703703703</v>
+        <v>-5.703703703703705</v>
       </c>
       <c r="AE24" t="n">
         <v>-3.160493827160495</v>
       </c>
       <c r="AF24" t="n">
-        <v>-1.283950617283951</v>
+        <v>-1.283950617283952</v>
       </c>
       <c r="AG24" t="n">
-        <v>-1.419753086419754</v>
+        <v>-1.419753086419755</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.7901234567901232</v>
+        <v>0.7901234567901231</v>
       </c>
       <c r="AI24" t="n">
         <v>1.432098765432099</v>
@@ -13156,34 +13156,34 @@
         <v>-4.333333333333345</v>
       </c>
       <c r="AK24" t="n">
-        <v>-14.22222222222224</v>
+        <v>-14.22222222222222</v>
       </c>
       <c r="AL24" t="n">
-        <v>-7.000000000000021</v>
+        <v>-7.000000000000014</v>
       </c>
       <c r="AM24" t="n">
-        <v>-68.44444444444443</v>
+        <v>-68.44444444444444</v>
       </c>
       <c r="AN24" t="n">
         <v>-10.22222222222221</v>
       </c>
       <c r="AO24" t="n">
-        <v>-40.44444444444443</v>
+        <v>-40.44444444444444</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.777777777777793</v>
+        <v>4.777777777777791</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29.55555555555557</v>
+        <v>29.55555555555556</v>
       </c>
       <c r="AR24" t="n">
-        <v>24.47372501014848</v>
+        <v>24.4737250101484</v>
       </c>
       <c r="AS24" t="n">
-        <v>-16.05900590806016</v>
+        <v>-16.05900590806013</v>
       </c>
       <c r="AT24" t="n">
-        <v>-197.7797022905103</v>
+        <v>-197.7797022905104</v>
       </c>
       <c r="AU24" t="n">
         <v>-507.5405860731087</v>
@@ -13195,7 +13195,7 @@
         <v>-324.7231877302657</v>
       </c>
       <c r="AX24" t="n">
-        <v>-30.67591771028163</v>
+        <v>-30.6759177102816</v>
       </c>
       <c r="AY24" t="n">
         <v>173.6919474873022</v>
@@ -13204,10 +13204,10 @@
         <v>-0.1450826666666662</v>
       </c>
       <c r="BA24" t="n">
-        <v>-0.2261808888888884</v>
+        <v>-0.2261808888888883</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.3139906666666669</v>
+        <v>0.3139906666666668</v>
       </c>
       <c r="BC24" t="n">
         <v>-0.4737657777777771</v>
@@ -13219,43 +13219,43 @@
         <v>-0.06857244444444488</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.2165339311851889</v>
+        <v>0.2165339311851888</v>
       </c>
       <c r="BG24" t="n">
         <v>-1.160344100465755</v>
       </c>
       <c r="BH24" t="n">
-        <v>-2.165913872621005</v>
+        <v>-2.165913872621006</v>
       </c>
       <c r="BI24" t="n">
         <v>0.655413439479509</v>
       </c>
       <c r="BJ24" t="n">
-        <v>-0.2932680500251861</v>
+        <v>-0.2932680500251856</v>
       </c>
       <c r="BK24" t="n">
         <v>36.91782010134514</v>
       </c>
       <c r="BL24" t="n">
-        <v>-0.2578400575445521</v>
+        <v>-0.2578400575445517</v>
       </c>
       <c r="BM24" t="n">
-        <v>2.781180993578596</v>
+        <v>2.781180993578598</v>
       </c>
       <c r="BN24" t="n">
-        <v>-0.544732677579379</v>
+        <v>-0.544732677579378</v>
       </c>
       <c r="BO24" t="n">
         <v>-15.66704723649465</v>
       </c>
       <c r="BP24" t="n">
-        <v>0.2311533972754733</v>
+        <v>0.2311533972754721</v>
       </c>
       <c r="BQ24" t="n">
-        <v>-7.461503556123667</v>
+        <v>-7.461503556123663</v>
       </c>
       <c r="BR24" t="n">
-        <v>-1.500088945939116</v>
+        <v>-1.500088945939117</v>
       </c>
       <c r="BS24" t="n">
         <v>1.890285227794392</v>
@@ -13264,7 +13264,7 @@
         <v>2.74074074074074</v>
       </c>
       <c r="BU24" t="n">
-        <v>-0.1604938271604942</v>
+        <v>-0.1604938271604943</v>
       </c>
       <c r="BV24" t="n">
         <v>50.92069052511839</v>
@@ -13644,22 +13644,22 @@
         <v>103.4650661742075</v>
       </c>
       <c r="V25" t="n">
-        <v>71.92736226531241</v>
+        <v>71.92736226531242</v>
       </c>
       <c r="W25" t="n">
         <v>-71.11111111111111</v>
       </c>
       <c r="X25" t="n">
-        <v>-88.68574946137272</v>
+        <v>-88.68574946137271</v>
       </c>
       <c r="Y25" t="n">
-        <v>-60.76608187134502</v>
+        <v>-60.76608187134503</v>
       </c>
       <c r="Z25" t="n">
         <v>118.7149892274546</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.528470298553394</v>
+        <v>9.528470298553401</v>
       </c>
       <c r="AB25" t="n">
         <v>9.5</v>
@@ -13710,25 +13710,25 @@
         <v>132</v>
       </c>
       <c r="AR25" t="n">
-        <v>-11.2012146639789</v>
+        <v>-11.20121466397891</v>
       </c>
       <c r="AS25" t="n">
-        <v>173.1011573448963</v>
+        <v>173.1011573448962</v>
       </c>
       <c r="AT25" t="n">
-        <v>356.3294790218322</v>
+        <v>356.3294790218321</v>
       </c>
       <c r="AU25" t="n">
-        <v>43.33440743297859</v>
+        <v>43.33440743297862</v>
       </c>
       <c r="AV25" t="n">
-        <v>-941.5098229132673</v>
+        <v>-941.509822913267</v>
       </c>
       <c r="AW25" t="n">
         <v>-408.0203438452259</v>
       </c>
       <c r="AX25" t="n">
-        <v>-322.8592108475979</v>
+        <v>-322.859210847598</v>
       </c>
       <c r="AY25" t="n">
         <v>308.880413104915</v>
@@ -13740,19 +13740,19 @@
         <v>2.29094931232687</v>
       </c>
       <c r="BB25" t="n">
-        <v>-0.1627531945983384</v>
+        <v>-0.1627531945983383</v>
       </c>
       <c r="BC25" t="n">
         <v>-3.101402223684206</v>
       </c>
       <c r="BD25" t="n">
-        <v>-2.611116518005538</v>
+        <v>-2.611116518005537</v>
       </c>
       <c r="BE25" t="n">
-        <v>-0.5278803552631595</v>
+        <v>-0.5278803552631596</v>
       </c>
       <c r="BF25" t="n">
-        <v>-0.9974312369999949</v>
+        <v>-0.997431236999995</v>
       </c>
       <c r="BG25" t="n">
         <v>-1.515346533816246</v>
@@ -13761,10 +13761,10 @@
         <v>0.1353439129387504</v>
       </c>
       <c r="BI25" t="n">
-        <v>-4.646901212669498</v>
+        <v>-4.646901212669499</v>
       </c>
       <c r="BJ25" t="n">
-        <v>-2.016110913363252</v>
+        <v>-2.016110913363253</v>
       </c>
       <c r="BK25" t="n">
         <v>54.43225488048547</v>
@@ -13773,25 +13773,25 @@
         <v>-10.86080166867012</v>
       </c>
       <c r="BM25" t="n">
-        <v>8.936522381686173</v>
+        <v>8.936522381686178</v>
       </c>
       <c r="BN25" t="n">
-        <v>-13.30510445159131</v>
+        <v>-13.3051044515913</v>
       </c>
       <c r="BO25" t="n">
-        <v>11.54201019487376</v>
+        <v>11.54201019487377</v>
       </c>
       <c r="BP25" t="n">
-        <v>-12.17528367949453</v>
+        <v>-12.17528367949454</v>
       </c>
       <c r="BQ25" t="n">
-        <v>-9.222814977339731</v>
+        <v>-9.222814977339736</v>
       </c>
       <c r="BR25" t="n">
-        <v>-5.927840114763207</v>
+        <v>-5.927840114763208</v>
       </c>
       <c r="BS25" t="n">
-        <v>-2.506658605262434</v>
+        <v>-2.506658605262435</v>
       </c>
       <c r="BT25" t="n">
         <v>4.134195136965221</v>
@@ -14171,10 +14171,10 @@
         <v>164.6193809484046</v>
       </c>
       <c r="T26" t="n">
-        <v>43.0642524005487</v>
+        <v>43.06425240054867</v>
       </c>
       <c r="U26" t="n">
-        <v>47.97229080932784</v>
+        <v>47.97229080932787</v>
       </c>
       <c r="V26" t="n">
         <v>-15.84274348422497</v>
@@ -14186,43 +14186,43 @@
         <v>-114.439890260631</v>
       </c>
       <c r="Y26" t="n">
-        <v>-8.172126200274342</v>
+        <v>-8.172126200274356</v>
       </c>
       <c r="Z26" t="n">
-        <v>40.90748971193417</v>
+        <v>40.90748971193416</v>
       </c>
       <c r="AA26" t="n">
         <v>19.00142661179699</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.967777777777778</v>
+        <v>8.967777777777773</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.422222222222223</v>
+        <v>4.422222222222226</v>
       </c>
       <c r="AD26" t="n">
-        <v>-5.398888888888889</v>
+        <v>-5.398888888888888</v>
       </c>
       <c r="AE26" t="n">
         <v>-20.06666666666666</v>
       </c>
       <c r="AF26" t="n">
-        <v>-9.824444444444444</v>
+        <v>-9.824444444444442</v>
       </c>
       <c r="AG26" t="n">
-        <v>3.814444444444444</v>
+        <v>3.814444444444443</v>
       </c>
       <c r="AH26" t="n">
-        <v>4.759999999999999</v>
+        <v>4.76</v>
       </c>
       <c r="AI26" t="n">
         <v>1.562222222222222</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-7.222222222222201</v>
+        <v>-7.222222222222207</v>
       </c>
       <c r="AK26" t="n">
-        <v>91.22222222222224</v>
+        <v>91.22222222222221</v>
       </c>
       <c r="AL26" t="n">
         <v>-35.55555555555554</v>
@@ -14234,22 +14234,22 @@
         <v>-211.1111111111111</v>
       </c>
       <c r="AO26" t="n">
-        <v>22.77777777777773</v>
+        <v>22.77777777777774</v>
       </c>
       <c r="AP26" t="n">
         <v>308</v>
       </c>
       <c r="AQ26" t="n">
-        <v>-67.7777777777778</v>
+        <v>-67.77777777777781</v>
       </c>
       <c r="AR26" t="n">
-        <v>137.106727547115</v>
+        <v>137.1067275471151</v>
       </c>
       <c r="AS26" t="n">
-        <v>270.9304136525803</v>
+        <v>270.9304136525802</v>
       </c>
       <c r="AT26" t="n">
-        <v>254.0499601135521</v>
+        <v>254.0499601135519</v>
       </c>
       <c r="AU26" t="n">
         <v>-916.2106927352681</v>
@@ -14258,40 +14258,40 @@
         <v>-1186.369980461402</v>
       </c>
       <c r="AW26" t="n">
-        <v>-7.173895184806099</v>
+        <v>-7.173895184806154</v>
       </c>
       <c r="AX26" t="n">
         <v>831.1176026372186</v>
       </c>
       <c r="AY26" t="n">
-        <v>56.77780032176835</v>
+        <v>56.77780032176832</v>
       </c>
       <c r="AZ26" t="n">
-        <v>-0.3221711099999991</v>
+        <v>-0.3221711099999989</v>
       </c>
       <c r="BA26" t="n">
-        <v>0.9244384999999997</v>
+        <v>0.9244384999999998</v>
       </c>
       <c r="BB26" t="n">
-        <v>-0.643876709999999</v>
+        <v>-0.6438767099999992</v>
       </c>
       <c r="BC26" t="n">
-        <v>-0.03306289999999928</v>
+        <v>-0.03306289999999927</v>
       </c>
       <c r="BD26" t="n">
         <v>-1.267820979999998</v>
       </c>
       <c r="BE26" t="n">
-        <v>-0.5031430300000016</v>
+        <v>-0.5031430300000015</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.8425416196438711</v>
+        <v>0.8425416196438718</v>
       </c>
       <c r="BG26" t="n">
         <v>1.115676843714903</v>
       </c>
       <c r="BH26" t="n">
-        <v>-4.869815851516796</v>
+        <v>-4.869815851516797</v>
       </c>
       <c r="BI26" t="n">
         <v>-4.007049545681891</v>
@@ -14303,13 +14303,13 @@
         <v>48.75942749889292</v>
       </c>
       <c r="BL26" t="n">
-        <v>3.294235663288009</v>
+        <v>3.294235663288008</v>
       </c>
       <c r="BM26" t="n">
         <v>15.63093464771468</v>
       </c>
       <c r="BN26" t="n">
-        <v>0.8724800577534184</v>
+        <v>0.8724800577534195</v>
       </c>
       <c r="BO26" t="n">
         <v>-25.9183907360119</v>
@@ -14318,10 +14318,10 @@
         <v>-17.26570674338704</v>
       </c>
       <c r="BQ26" t="n">
-        <v>0.7305110193164079</v>
+        <v>0.7305110193164067</v>
       </c>
       <c r="BR26" t="n">
-        <v>-1.657313261140732</v>
+        <v>-1.657313261140734</v>
       </c>
       <c r="BS26" t="n">
         <v>-1.515861067302128</v>
@@ -14330,7 +14330,7 @@
         <v>3.396652949245542</v>
       </c>
       <c r="BU26" t="n">
-        <v>-0.2329749103942645</v>
+        <v>-0.2329749103942647</v>
       </c>
       <c r="BV26" t="n">
         <v>50.51798637723685</v>
@@ -14776,19 +14776,19 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>97.16226444980396</v>
+        <v>97.16226444980397</v>
       </c>
       <c r="AS27" t="n">
-        <v>-170.9647925832336</v>
+        <v>-170.9647925832337</v>
       </c>
       <c r="AT27" t="n">
         <v>-210.1786989623904</v>
       </c>
       <c r="AU27" t="n">
-        <v>-359.7815672628563</v>
+        <v>-359.7815672628562</v>
       </c>
       <c r="AV27" t="n">
-        <v>6.061360018847893</v>
+        <v>6.061360018847921</v>
       </c>
       <c r="AW27" t="n">
         <v>204.1642926130221</v>
@@ -14809,7 +14809,7 @@
         <v>-0.4143347499999996</v>
       </c>
       <c r="BC27" t="n">
-        <v>0.5256854999999991</v>
+        <v>0.5256854999999993</v>
       </c>
       <c r="BD27" t="n">
         <v>-1.4709795</v>
@@ -15237,13 +15237,13 @@
         <v>164.5647457108696</v>
       </c>
       <c r="T28" t="n">
-        <v>2.890864197530856</v>
+        <v>2.890864197530849</v>
       </c>
       <c r="U28" t="n">
         <v>37.01728395061727</v>
       </c>
       <c r="V28" t="n">
-        <v>-48.12592592592594</v>
+        <v>-48.12592592592593</v>
       </c>
       <c r="W28" t="n">
         <v>14.91506172839505</v>
@@ -15258,37 +15258,37 @@
         <v>-148.8098765432099</v>
       </c>
       <c r="AA28" t="n">
-        <v>-8.581234567901225</v>
+        <v>-8.581234567901227</v>
       </c>
       <c r="AB28" t="n">
-        <v>4.111111111111109</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="AC28" t="n">
-        <v>-3.444444444444447</v>
+        <v>-3.444444444444446</v>
       </c>
       <c r="AD28" t="n">
-        <v>-5.333333333333335</v>
+        <v>-5.333333333333334</v>
       </c>
       <c r="AE28" t="n">
         <v>1.555555555555556</v>
       </c>
       <c r="AF28" t="n">
-        <v>-2.555555555555555</v>
+        <v>-2.555555555555557</v>
       </c>
       <c r="AG28" t="n">
-        <v>-6.222222222222222</v>
+        <v>-6.222222222222221</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.888888888888888</v>
+        <v>-0.8888888888888887</v>
       </c>
       <c r="AI28" t="n">
         <v>-2.444444444444444</v>
       </c>
       <c r="AJ28" t="n">
-        <v>87.36000000000001</v>
+        <v>87.36000000000007</v>
       </c>
       <c r="AK28" t="n">
-        <v>58.80000000000003</v>
+        <v>58.80000000000001</v>
       </c>
       <c r="AL28" t="n">
         <v>-85.39999999999998</v>
@@ -15300,40 +15300,40 @@
         <v>59.91999999999999</v>
       </c>
       <c r="AO28" t="n">
-        <v>-179.4</v>
+        <v>-179.3999999999999</v>
       </c>
       <c r="AP28" t="n">
-        <v>-232</v>
+        <v>-231.9999999999999</v>
       </c>
       <c r="AQ28" t="n">
-        <v>-25.68000000000002</v>
+        <v>-25.68000000000001</v>
       </c>
       <c r="AR28" t="n">
-        <v>80.79774889238887</v>
+        <v>80.79774889238891</v>
       </c>
       <c r="AS28" t="n">
-        <v>23.29334304298679</v>
+        <v>23.29334304298674</v>
       </c>
       <c r="AT28" t="n">
-        <v>-520.805508802441</v>
+        <v>-520.8055088024408</v>
       </c>
       <c r="AU28" t="n">
-        <v>-369.181625057374</v>
+        <v>-369.1816250573741</v>
       </c>
       <c r="AV28" t="n">
-        <v>546.0154173770276</v>
+        <v>546.0154173770277</v>
       </c>
       <c r="AW28" t="n">
-        <v>-7.475106989874064</v>
+        <v>-7.475106989874223</v>
       </c>
       <c r="AX28" t="n">
-        <v>-347.7545826977951</v>
+        <v>-347.754582697795</v>
       </c>
       <c r="AY28" t="n">
-        <v>-562.5742219530853</v>
+        <v>-562.5742219530852</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.05685478999999966</v>
+        <v>0.05685478999999968</v>
       </c>
       <c r="BA28" t="n">
         <v>1.867638699999999</v>
@@ -15342,16 +15342,16 @@
         <v>-1.1815696</v>
       </c>
       <c r="BC28" t="n">
-        <v>0.2608388799999997</v>
+        <v>0.2608388799999995</v>
       </c>
       <c r="BD28" t="n">
         <v>-1.23726452</v>
       </c>
       <c r="BE28" t="n">
-        <v>-0.05169420000000019</v>
+        <v>-0.05169420000000016</v>
       </c>
       <c r="BF28" t="n">
-        <v>-0.7432919785930417</v>
+        <v>-0.7432919785930416</v>
       </c>
       <c r="BG28" t="n">
         <v>-3.285864687807395</v>
@@ -15363,16 +15363,16 @@
         <v>2.582432264394522</v>
       </c>
       <c r="BJ28" t="n">
-        <v>1.879543137296308</v>
+        <v>1.879543137296307</v>
       </c>
       <c r="BK28" t="n">
         <v>52.99809836542545</v>
       </c>
       <c r="BL28" t="n">
-        <v>-7.37693027207075</v>
+        <v>-7.376930272070749</v>
       </c>
       <c r="BM28" t="n">
-        <v>8.864981765819218</v>
+        <v>8.864981765819216</v>
       </c>
       <c r="BN28" t="n">
         <v>-25.5712168307228</v>
@@ -15381,22 +15381,22 @@
         <v>-16.07999124618968</v>
       </c>
       <c r="BP28" t="n">
-        <v>3.558224510904221</v>
+        <v>3.558224510904219</v>
       </c>
       <c r="BQ28" t="n">
-        <v>0.6481208754285683</v>
+        <v>0.6481208754285679</v>
       </c>
       <c r="BR28" t="n">
-        <v>16.48908160033268</v>
+        <v>16.48908160033269</v>
       </c>
       <c r="BS28" t="n">
-        <v>-2.560112257994175</v>
+        <v>-2.560112257994173</v>
       </c>
       <c r="BT28" t="n">
         <v>4.235061728395062</v>
       </c>
       <c r="BU28" t="n">
-        <v>2.818064516129033</v>
+        <v>2.818064516129035</v>
       </c>
       <c r="BV28" t="n">
         <v>48.14125236227935</v>
@@ -15770,19 +15770,19 @@
         <v>163.7351171221367</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.759335467154396</v>
+        <v>-1.759335467154399</v>
       </c>
       <c r="U29" t="n">
         <v>29.82578875171467</v>
       </c>
       <c r="V29" t="n">
-        <v>-12.68084133516232</v>
+        <v>-12.68084133516233</v>
       </c>
       <c r="W29" t="n">
-        <v>-47.84971803078798</v>
+        <v>-47.849718030788</v>
       </c>
       <c r="X29" t="n">
-        <v>34.48041457094955</v>
+        <v>34.48041457094954</v>
       </c>
       <c r="Y29" t="n">
         <v>32.45846669714983</v>
@@ -15797,40 +15797,40 @@
         <v>3.754458161865569</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.938271604938273</v>
+        <v>-2.938271604938272</v>
       </c>
       <c r="AD29" t="n">
-        <v>-5.448559670781894</v>
+        <v>-5.448559670781893</v>
       </c>
       <c r="AE29" t="n">
         <v>1.282578875171468</v>
       </c>
       <c r="AF29" t="n">
-        <v>-2.400548696844993</v>
+        <v>-2.400548696844992</v>
       </c>
       <c r="AG29" t="n">
-        <v>-5.338820301783265</v>
+        <v>-5.338820301783263</v>
       </c>
       <c r="AH29" t="n">
-        <v>-0.3991769547325102</v>
+        <v>-0.39917695473251</v>
       </c>
       <c r="AI29" t="n">
         <v>-2.10562414266118</v>
       </c>
       <c r="AJ29" t="n">
-        <v>74.14540466392319</v>
+        <v>74.14540466392317</v>
       </c>
       <c r="AK29" t="n">
         <v>110.7283950617284</v>
       </c>
       <c r="AL29" t="n">
-        <v>-166.5473251028807</v>
+        <v>-166.5473251028806</v>
       </c>
       <c r="AM29" t="n">
-        <v>-5.997256515775028</v>
+        <v>-5.997256515775018</v>
       </c>
       <c r="AN29" t="n">
-        <v>104.517146776406</v>
+        <v>104.5171467764061</v>
       </c>
       <c r="AO29" t="n">
         <v>-210.3840877914952</v>
@@ -15839,7 +15839,7 @@
         <v>-261.1646090534979</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.310013717421125</v>
+        <v>5.310013717421126</v>
       </c>
       <c r="AR29" t="n">
         <v>132.8200398755125</v>
@@ -15872,7 +15872,7 @@
         <v>1.698863333333333</v>
       </c>
       <c r="BB29" t="n">
-        <v>-1.131057592592592</v>
+        <v>-1.131057592592591</v>
       </c>
       <c r="BC29" t="n">
         <v>-0.5454067160493817</v>
@@ -15881,10 +15881,10 @@
         <v>-0.4142904197530858</v>
       </c>
       <c r="BE29" t="n">
-        <v>0.4287802469135805</v>
+        <v>0.4287802469135806</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.03198778526049706</v>
+        <v>0.0319877852604971</v>
       </c>
       <c r="BG29" t="n">
         <v>-3.877688687986812</v>
@@ -15902,10 +15902,10 @@
         <v>52.80905095981959</v>
       </c>
       <c r="BL29" t="n">
-        <v>5.213550234158094</v>
+        <v>5.213550234158097</v>
       </c>
       <c r="BM29" t="n">
-        <v>-12.2627568205364</v>
+        <v>-12.26275682053641</v>
       </c>
       <c r="BN29" t="n">
         <v>-18.07024397645021</v>
@@ -15917,13 +15917,13 @@
         <v>8.199931403847028</v>
       </c>
       <c r="BQ29" t="n">
-        <v>-2.571096046020872</v>
+        <v>-2.571096046020874</v>
       </c>
       <c r="BR29" t="n">
         <v>9.874576752012707</v>
       </c>
       <c r="BS29" t="n">
-        <v>-7.905384786711325</v>
+        <v>-7.905384786711326</v>
       </c>
       <c r="BT29" t="n">
         <v>4.388965096784027</v>
@@ -16303,28 +16303,28 @@
         <v>160.8050758195949</v>
       </c>
       <c r="T30" t="n">
-        <v>61.24930747922438</v>
+        <v>61.24930747922441</v>
       </c>
       <c r="U30" t="n">
-        <v>5.357340720221611</v>
+        <v>5.357340720221606</v>
       </c>
       <c r="V30" t="n">
         <v>-31.69252077562328</v>
       </c>
       <c r="W30" t="n">
-        <v>-48.41828254847646</v>
+        <v>-48.41828254847648</v>
       </c>
       <c r="X30" t="n">
         <v>-22.11634349030471</v>
       </c>
       <c r="Y30" t="n">
-        <v>-9.27146814404432</v>
+        <v>-9.271468144044324</v>
       </c>
       <c r="Z30" t="n">
-        <v>-62.53185595567869</v>
+        <v>-62.53185595567867</v>
       </c>
       <c r="AA30" t="n">
-        <v>-78.50415512465376</v>
+        <v>-78.50415512465378</v>
       </c>
       <c r="AB30" t="n">
         <v>17.46520083102493</v>
@@ -16336,97 +16336,97 @@
         <v>-14.36166897506925</v>
       </c>
       <c r="AE30" t="n">
-        <v>-4.748961218836563</v>
+        <v>-4.748961218836562</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.9925554016620488</v>
+        <v>0.9925554016620497</v>
       </c>
       <c r="AG30" t="n">
-        <v>-9.723511080332411</v>
+        <v>-9.723511080332404</v>
       </c>
       <c r="AH30" t="n">
         <v>-10.56128808864266</v>
       </c>
       <c r="AI30" t="n">
-        <v>3.676073407202217</v>
+        <v>3.676073407202216</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16.56509695290863</v>
+        <v>16.56509695290865</v>
       </c>
       <c r="AK30" t="n">
-        <v>23.98891966759007</v>
+        <v>23.98891966759008</v>
       </c>
       <c r="AL30" t="n">
         <v>-112.0083102493074</v>
       </c>
       <c r="AM30" t="n">
-        <v>-65.47091412742381</v>
+        <v>-65.4709141274238</v>
       </c>
       <c r="AN30" t="n">
-        <v>-93.85318559556787</v>
+        <v>-93.85318559556784</v>
       </c>
       <c r="AO30" t="n">
-        <v>35.09695290858724</v>
+        <v>35.09695290858723</v>
       </c>
       <c r="AP30" t="n">
-        <v>-34.32132963988921</v>
+        <v>-34.32132963988919</v>
       </c>
       <c r="AQ30" t="n">
         <v>-175.0831024930748</v>
       </c>
       <c r="AR30" t="n">
-        <v>203.0889338514545</v>
+        <v>203.0889338514543</v>
       </c>
       <c r="AS30" t="n">
         <v>259.5838845805828</v>
       </c>
       <c r="AT30" t="n">
-        <v>-1170.083195084802</v>
+        <v>-1170.083195084803</v>
       </c>
       <c r="AU30" t="n">
-        <v>-391.9891952400597</v>
+        <v>-391.9891952400598</v>
       </c>
       <c r="AV30" t="n">
-        <v>-593.5727217036094</v>
+        <v>-593.5727217036095</v>
       </c>
       <c r="AW30" t="n">
-        <v>-282.0145974315121</v>
+        <v>-282.0145974315122</v>
       </c>
       <c r="AX30" t="n">
-        <v>-518.7563920605027</v>
+        <v>-518.7563920605025</v>
       </c>
       <c r="AY30" t="n">
-        <v>-481.5279384769319</v>
+        <v>-481.5279384769318</v>
       </c>
       <c r="AZ30" t="n">
-        <v>-0.1266236433518008</v>
+        <v>-0.1266236433518009</v>
       </c>
       <c r="BA30" t="n">
-        <v>-0.124747754155125</v>
+        <v>-0.1247477541551251</v>
       </c>
       <c r="BB30" t="n">
         <v>-0.1849538123268701</v>
       </c>
       <c r="BC30" t="n">
-        <v>-0.6066354002770084</v>
+        <v>-0.6066354002770086</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.1883538511080332</v>
+        <v>0.1883538511080333</v>
       </c>
       <c r="BE30" t="n">
         <v>0.3588435824099724</v>
       </c>
       <c r="BF30" t="n">
-        <v>1.077795480828517</v>
+        <v>1.077795480828518</v>
       </c>
       <c r="BG30" t="n">
         <v>-6.039505859542228</v>
       </c>
       <c r="BH30" t="n">
-        <v>-1.564619575778267</v>
+        <v>-1.564619575778266</v>
       </c>
       <c r="BI30" t="n">
-        <v>-1.361605305223475</v>
+        <v>-1.361605305223476</v>
       </c>
       <c r="BJ30" t="n">
         <v>-3.060976102325328</v>
@@ -16438,13 +16438,13 @@
         <v>1.236487662281043</v>
       </c>
       <c r="BM30" t="n">
-        <v>10.86037213934236</v>
+        <v>10.86037213934237</v>
       </c>
       <c r="BN30" t="n">
-        <v>-26.54591872894487</v>
+        <v>-26.54591872894489</v>
       </c>
       <c r="BO30" t="n">
-        <v>-7.944957036562433</v>
+        <v>-7.94495703656243</v>
       </c>
       <c r="BP30" t="n">
         <v>-7.078818297081495</v>
@@ -16453,7 +16453,7 @@
         <v>-28.55866364509325</v>
       </c>
       <c r="BR30" t="n">
-        <v>-22.93068444830304</v>
+        <v>-22.93068444830305</v>
       </c>
       <c r="BS30" t="n">
         <v>7.987411871672043</v>
@@ -16462,7 +16462,7 @@
         <v>2.680055401662049</v>
       </c>
       <c r="BU30" t="n">
-        <v>0.2096847715558054</v>
+        <v>0.2096847715558056</v>
       </c>
       <c r="BV30" t="n">
         <v>53.554216307687</v>
@@ -16839,7 +16839,7 @@
         <v>15.89468379944571</v>
       </c>
       <c r="U31" t="n">
-        <v>7.7180650037793</v>
+        <v>7.718065003779301</v>
       </c>
       <c r="V31" t="n">
         <v>-18.96371882086168</v>
@@ -16848,25 +16848,25 @@
         <v>-27.81657848324515</v>
       </c>
       <c r="X31" t="n">
-        <v>-17.85034013605443</v>
+        <v>-17.85034013605442</v>
       </c>
       <c r="Y31" t="n">
         <v>-20.34416729654825</v>
       </c>
       <c r="Z31" t="n">
-        <v>-8.016628873771737</v>
+        <v>-8.016628873771738</v>
       </c>
       <c r="AA31" t="n">
         <v>22.80675233056185</v>
       </c>
       <c r="AB31" t="n">
-        <v>3.183673469387754</v>
+        <v>3.183673469387755</v>
       </c>
       <c r="AC31" t="n">
         <v>-1.265306122448981</v>
       </c>
       <c r="AD31" t="n">
-        <v>-3.204081632653062</v>
+        <v>-3.204081632653061</v>
       </c>
       <c r="AE31" t="n">
         <v>-2</v>
@@ -16878,7 +16878,7 @@
         <v>-3.020408163265306</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.08163265306122519</v>
+        <v>0.08163265306122529</v>
       </c>
       <c r="AI31" t="n">
         <v>2.204081632653062</v>
@@ -16896,19 +16896,19 @@
         <v>29.12698412698413</v>
       </c>
       <c r="AN31" t="n">
-        <v>-12.6530612244898</v>
+        <v>-12.65306122448979</v>
       </c>
       <c r="AO31" t="n">
         <v>13.75963718820862</v>
       </c>
       <c r="AP31" t="n">
-        <v>-80.05442176870748</v>
+        <v>-80.05442176870747</v>
       </c>
       <c r="AQ31" t="n">
-        <v>-41.40589569160997</v>
+        <v>-41.40589569160996</v>
       </c>
       <c r="AR31" t="n">
-        <v>47.00403772828715</v>
+        <v>47.00403772828712</v>
       </c>
       <c r="AS31" t="n">
         <v>-341.2963313979731</v>
@@ -16929,34 +16929,34 @@
         <v>-262.8376002462396</v>
       </c>
       <c r="AY31" t="n">
-        <v>-28.22264329795815</v>
+        <v>-28.22264329795817</v>
       </c>
       <c r="AZ31" t="n">
-        <v>-0.1134568367346931</v>
+        <v>-0.1134568367346932</v>
       </c>
       <c r="BA31" t="n">
-        <v>0.08751493877551135</v>
+        <v>0.08751493877551134</v>
       </c>
       <c r="BB31" t="n">
         <v>0.1569028979591841</v>
       </c>
       <c r="BC31" t="n">
-        <v>-0.2557415714285706</v>
+        <v>-0.2557415714285705</v>
       </c>
       <c r="BD31" t="n">
         <v>-0.2016437959183678</v>
       </c>
       <c r="BE31" t="n">
-        <v>-0.08155065306122486</v>
+        <v>-0.08155065306122487</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.4519742066557904</v>
+        <v>0.4519742066557905</v>
       </c>
       <c r="BG31" t="n">
-        <v>-0.4375078332163488</v>
+        <v>-0.4375078332163487</v>
       </c>
       <c r="BH31" t="n">
-        <v>-0.04234565739320875</v>
+        <v>-0.0423456573932088</v>
       </c>
       <c r="BI31" t="n">
         <v>1.09514219387755</v>
@@ -16968,16 +16968,16 @@
         <v>40.78037413046578</v>
       </c>
       <c r="BL31" t="n">
-        <v>-4.130271519431213</v>
+        <v>-4.130271519431212</v>
       </c>
       <c r="BM31" t="n">
         <v>-18.9710542364487</v>
       </c>
       <c r="BN31" t="n">
-        <v>0.5105639703029747</v>
+        <v>0.5105639703029742</v>
       </c>
       <c r="BO31" t="n">
-        <v>-7.047477779844172</v>
+        <v>-7.04747777984417</v>
       </c>
       <c r="BP31" t="n">
         <v>10.00483487427938</v>
@@ -16986,7 +16986,7 @@
         <v>2.225719128579039</v>
       </c>
       <c r="BR31" t="n">
-        <v>-0.4627900673762129</v>
+        <v>-0.4627900673762131</v>
       </c>
       <c r="BS31" t="n">
         <v>-5.091384112861624</v>
@@ -16995,7 +16995,7 @@
         <v>3.412446460065508</v>
       </c>
       <c r="BU31" t="n">
-        <v>0.5157251306319627</v>
+        <v>0.5157251306319628</v>
       </c>
       <c r="BV31" t="n">
         <v>48.71512534384978</v>
@@ -17369,7 +17369,7 @@
         <v>164.8948277706689</v>
       </c>
       <c r="T32" t="n">
-        <v>10.66666666666666</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="U32" t="n">
         <v>73.11111111111111</v>
@@ -17378,10 +17378,10 @@
         <v>16.23319615912208</v>
       </c>
       <c r="W32" t="n">
-        <v>70.72702331961591</v>
+        <v>70.72702331961592</v>
       </c>
       <c r="X32" t="n">
-        <v>-6.032921810699593</v>
+        <v>-6.032921810699589</v>
       </c>
       <c r="Y32" t="n">
         <v>-64.33744855967079</v>
@@ -17390,7 +17390,7 @@
         <v>-123.0150891632373</v>
       </c>
       <c r="AA32" t="n">
-        <v>-43.70096021947874</v>
+        <v>-43.70096021947873</v>
       </c>
       <c r="AB32" t="n">
         <v>5</v>
@@ -17441,7 +17441,7 @@
         <v>-102</v>
       </c>
       <c r="AR32" t="n">
-        <v>16.75757823820567</v>
+        <v>16.75757823820569</v>
       </c>
       <c r="AS32" t="n">
         <v>-51.62920198848519</v>
@@ -17450,7 +17450,7 @@
         <v>-61.50569629324612</v>
       </c>
       <c r="AU32" t="n">
-        <v>-42.80867860018923</v>
+        <v>-42.80867860018925</v>
       </c>
       <c r="AV32" t="n">
         <v>521.4208927038934</v>
@@ -17459,13 +17459,13 @@
         <v>-310.8228699119171</v>
       </c>
       <c r="AX32" t="n">
-        <v>-476.8771478299251</v>
+        <v>-476.8771478299249</v>
       </c>
       <c r="AY32" t="n">
-        <v>-270.9308489321388</v>
+        <v>-270.9308489321389</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.268384583333333</v>
+        <v>0.2683845833333331</v>
       </c>
       <c r="BA32" t="n">
         <v>2.596937437499999</v>
@@ -17480,10 +17480,10 @@
         <v>-1.393022041666666</v>
       </c>
       <c r="BE32" t="n">
-        <v>-1.700008479166665</v>
+        <v>-1.700008479166666</v>
       </c>
       <c r="BF32" t="n">
-        <v>-0.886998084999995</v>
+        <v>-0.8869980849999953</v>
       </c>
       <c r="BG32" t="n">
         <v>-1.888901594853275</v>
@@ -17492,16 +17492,16 @@
         <v>-0.8013754875954453</v>
       </c>
       <c r="BI32" t="n">
-        <v>2.414167359531331</v>
+        <v>2.414167359531332</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0.626147282274943</v>
+        <v>0.6261472822749431</v>
       </c>
       <c r="BK32" t="n">
         <v>53.8879402855165</v>
       </c>
       <c r="BL32" t="n">
-        <v>-7.708001711039546</v>
+        <v>-7.708001711039547</v>
       </c>
       <c r="BM32" t="n">
         <v>11.6405455204289</v>
@@ -17510,10 +17510,10 @@
         <v>-19.46479211738454</v>
       </c>
       <c r="BO32" t="n">
-        <v>-7.850842452303839</v>
+        <v>-7.850842452303841</v>
       </c>
       <c r="BP32" t="n">
-        <v>6.985151929353423</v>
+        <v>6.985151929353422</v>
       </c>
       <c r="BQ32" t="n">
         <v>-14.32630172728217</v>
@@ -17902,7 +17902,7 @@
         <v>164.3144195398516</v>
       </c>
       <c r="T33" t="n">
-        <v>59.25643004115225</v>
+        <v>59.25643004115226</v>
       </c>
       <c r="U33" t="n">
         <v>16.15286351165981</v>
@@ -17911,13 +17911,13 @@
         <v>-22.69324417009601</v>
       </c>
       <c r="W33" t="n">
-        <v>-60.86359739368999</v>
+        <v>-60.86359739368997</v>
       </c>
       <c r="X33" t="n">
         <v>-18.9718792866941</v>
       </c>
       <c r="Y33" t="n">
-        <v>5.443758573388207</v>
+        <v>5.443758573388203</v>
       </c>
       <c r="Z33" t="n">
         <v>-13.33170438957476</v>
@@ -17929,37 +17929,37 @@
         <v>7.666666666666663</v>
       </c>
       <c r="AC33" t="n">
-        <v>-3.55555555555556</v>
+        <v>-3.555555555555559</v>
       </c>
       <c r="AD33" t="n">
         <v>-11.44444444444445</v>
       </c>
       <c r="AE33" t="n">
-        <v>-9.555555555555554</v>
+        <v>-9.555555555555555</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.4444444444444471</v>
+        <v>0.4444444444444474</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.444444444444446</v>
+        <v>2.444444444444447</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.7777777777777789</v>
       </c>
       <c r="AI33" t="n">
-        <v>-4.888888888888888</v>
+        <v>-4.888888888888889</v>
       </c>
       <c r="AJ33" t="n">
         <v>29.27083333333337</v>
       </c>
       <c r="AK33" t="n">
-        <v>7.548611111111152</v>
+        <v>7.548611111111157</v>
       </c>
       <c r="AL33" t="n">
-        <v>-62.56944444444444</v>
+        <v>-62.56944444444443</v>
       </c>
       <c r="AM33" t="n">
-        <v>-76.86805555555559</v>
+        <v>-76.86805555555557</v>
       </c>
       <c r="AN33" t="n">
         <v>19.19444444444441</v>
@@ -17968,46 +17968,46 @@
         <v>-63.0555555555556</v>
       </c>
       <c r="AP33" t="n">
-        <v>-66.61805555555559</v>
+        <v>-66.61805555555557</v>
       </c>
       <c r="AQ33" t="n">
-        <v>-32.4513888888889</v>
+        <v>-32.45138888888889</v>
       </c>
       <c r="AR33" t="n">
         <v>-142.6591233794739</v>
       </c>
       <c r="AS33" t="n">
-        <v>-52.02555266359491</v>
+        <v>-52.02555266359488</v>
       </c>
       <c r="AT33" t="n">
         <v>-49.80574169341486</v>
       </c>
       <c r="AU33" t="n">
-        <v>-701.0578336760271</v>
+        <v>-701.057833676027</v>
       </c>
       <c r="AV33" t="n">
-        <v>-55.1734280949423</v>
+        <v>-55.17342809494228</v>
       </c>
       <c r="AW33" t="n">
-        <v>-30.02373980654559</v>
+        <v>-30.02373980654558</v>
       </c>
       <c r="AX33" t="n">
-        <v>-17.80020512705909</v>
+        <v>-17.80020512705903</v>
       </c>
       <c r="AY33" t="n">
-        <v>-41.14322390094503</v>
+        <v>-41.14322390094507</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.1599393554687507</v>
+        <v>0.1599393554687506</v>
       </c>
       <c r="BA33" t="n">
-        <v>0.4005653242187516</v>
+        <v>0.4005653242187517</v>
       </c>
       <c r="BB33" t="n">
         <v>-0.4713509609374992</v>
       </c>
       <c r="BC33" t="n">
-        <v>-0.3663209726562502</v>
+        <v>-0.3663209726562504</v>
       </c>
       <c r="BD33" t="n">
         <v>-0.2990027031250015</v>
@@ -18016,7 +18016,7 @@
         <v>-0.1680273125000008</v>
       </c>
       <c r="BF33" t="n">
-        <v>-1.544707317694116</v>
+        <v>-1.544707317694117</v>
       </c>
       <c r="BG33" t="n">
         <v>0.02622314588246177</v>
@@ -18025,10 +18025,10 @@
         <v>-2.844858780160196</v>
       </c>
       <c r="BI33" t="n">
-        <v>0.2446102153112137</v>
+        <v>0.2446102153112136</v>
       </c>
       <c r="BJ33" t="n">
-        <v>-1.338986783950926</v>
+        <v>-1.338986783950927</v>
       </c>
       <c r="BK33" t="n">
         <v>74.7148593112972</v>
@@ -18037,19 +18037,19 @@
         <v>-26.67446412315108</v>
       </c>
       <c r="BM33" t="n">
-        <v>1.679292227243967</v>
+        <v>1.679292227243969</v>
       </c>
       <c r="BN33" t="n">
         <v>9.974162642739394</v>
       </c>
       <c r="BO33" t="n">
-        <v>-9.609436169582136</v>
+        <v>-9.609436169582139</v>
       </c>
       <c r="BP33" t="n">
-        <v>-6.927733267425347</v>
+        <v>-6.927733267425344</v>
       </c>
       <c r="BQ33" t="n">
-        <v>-2.485908980786954</v>
+        <v>-2.485908980786955</v>
       </c>
       <c r="BR33" t="n">
         <v>3.328409803956231</v>
